--- a/_Out/Server/NFDataCfg/Excel_Ini/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Player.xlsx
@@ -1,33 +1,1245 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="Property" sheetId="1" r:id="rId1"/>
+    <sheet name="Property1" sheetId="1" r:id="rId1"/>
+    <sheet name="Record_PlayerHero" sheetId="2" r:id="rId2"/>
+    <sheet name="Record_PlayerFightHero" sheetId="3" r:id="rId3"/>
+    <sheet name="Record_BagEquipList" sheetId="4" r:id="rId4"/>
+    <sheet name="Record_BagItemList" sheetId="5" r:id="rId5"/>
+    <sheet name="Record_HeroPropertyValue" sheetId="6" r:id="rId6"/>
+    <sheet name="Record_CommPropertyValue" sheetId="7" r:id="rId7"/>
+    <sheet name="Record_TaskMonsterList" sheetId="8" r:id="rId8"/>
+    <sheet name="Record_TaskList" sheetId="9" r:id="rId9"/>
+    <sheet name="Record_BuildingList" sheetId="10" r:id="rId10"/>
+    <sheet name="Record_BuildingProduce" sheetId="11" r:id="rId11"/>
+    <sheet name="Component" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pengbo.yang</author>
+  </authors>
+  <commentList>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>物品配置ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>强化等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>经验</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>星级</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pengbo.yang</author>
+  </authors>
+  <commentList>
+    <comment ref="O1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>物品配置ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>强化等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>镶嵌宝石，逗号分隔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>附魔等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>物品配置ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>强化等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>镶嵌宝石，逗号分隔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>附魔等级</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pengbo.yang</author>
+  </authors>
+  <commentList>
+    <comment ref="O1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>物品配置ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>强化等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>镶嵌宝石，逗号分隔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>附魔等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>物品配置ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>强化等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>镶嵌宝石，逗号分隔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>附魔等级</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pengbo.yang</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>物品配置ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>强化等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>镶嵌宝石，逗号分隔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>附魔等级</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pengbo.yang</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>任务ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>任务状态，见NFDefine.proto中ETaskState</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>当前进度</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pengbo.yang</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>建筑ID</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pengbo.yang</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>建筑ID</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Camp</t>
+  </si>
+  <si>
+    <t>LastContainerID</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>ShowName</t>
+  </si>
+  <si>
+    <t>PrefabPath</t>
+  </si>
+  <si>
+    <t>FirstTarget</t>
+  </si>
+  <si>
+    <t>CharType</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>VIPLevel</t>
+  </si>
+  <si>
+    <t>VIPEXP</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>ConnectKey</t>
+  </si>
+  <si>
+    <t>MAXEXP</t>
+  </si>
+  <si>
+    <t>RELIVE_SOUL</t>
+  </si>
+  <si>
+    <t>ATK_PVP</t>
+  </si>
+  <si>
+    <t>DEF_PVP</t>
+  </si>
+  <si>
+    <t>OnlineCount</t>
+  </si>
+  <si>
+    <t>TotalTime</t>
+  </si>
+  <si>
+    <t>LastOfflineTime</t>
+  </si>
+  <si>
+    <t>OnlineTime</t>
+  </si>
+  <si>
+    <t>SUCKBLOOD</t>
+  </si>
+  <si>
+    <t>REFLECTDAMAGE</t>
+  </si>
+  <si>
+    <t>CRITICAL</t>
+  </si>
+  <si>
+    <t>MAXHP</t>
+  </si>
+  <si>
+    <t>MAXMP</t>
+  </si>
+  <si>
+    <t>MAXSP</t>
+  </si>
+  <si>
+    <t>HPREGEN</t>
+  </si>
+  <si>
+    <t>SPREGEN</t>
+  </si>
+  <si>
+    <t>MPREGEN</t>
+  </si>
+  <si>
+    <t>ATK_VALUE</t>
+  </si>
+  <si>
+    <t>DEF_VALUE</t>
+  </si>
+  <si>
+    <t>MOVE_SPEED</t>
+  </si>
+  <si>
+    <t>ATK_SPEED</t>
+  </si>
+  <si>
+    <t>ATK_FIRE</t>
+  </si>
+  <si>
+    <t>ATK_LIGHT</t>
+  </si>
+  <si>
+    <t>ATK_WIND</t>
+  </si>
+  <si>
+    <t>ATK_ICE</t>
+  </si>
+  <si>
+    <t>ATK_POISON</t>
+  </si>
+  <si>
+    <t>DEF_FIRE</t>
+  </si>
+  <si>
+    <t>DEF_LIGHT</t>
+  </si>
+  <si>
+    <t>DEF_WIND</t>
+  </si>
+  <si>
+    <t>DEF_ICE</t>
+  </si>
+  <si>
+    <t>DEF_POISON</t>
+  </si>
+  <si>
+    <t>DIZZY_GATE</t>
+  </si>
+  <si>
+    <t>MOVE_GATE</t>
+  </si>
+  <si>
+    <t>SKILL_GATE</t>
+  </si>
+  <si>
+    <t>PHYSICAL_GATE</t>
+  </si>
+  <si>
+    <t>MAGIC_GATE</t>
+  </si>
+  <si>
+    <t>BUFF_GATE</t>
+  </si>
+  <si>
+    <t>TotalLineTime</t>
+  </si>
+  <si>
+    <t>GMLevel</t>
+  </si>
+  <si>
+    <t>LoadPropertyFinish</t>
+  </si>
+  <si>
+    <t>GameID</t>
+  </si>
+  <si>
+    <t>GateID</t>
+  </si>
+  <si>
+    <t>GuildID</t>
+  </si>
+  <si>
+    <t>TeamID</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>角色名</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>种族</t>
+  </si>
+  <si>
+    <t>阵营</t>
+  </si>
+  <si>
+    <t>玩家下线的时候需要保存上次在线的场景</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>显示的名字</t>
+  </si>
+  <si>
+    <t>预设路径</t>
+  </si>
+  <si>
+    <t>首要目标</t>
+  </si>
+  <si>
+    <t>角色类型</t>
+  </si>
+  <si>
+    <t>职业</t>
+  </si>
+  <si>
+    <t>经验获得,如果是怪物，则是掉落经验</t>
+  </si>
+  <si>
+    <t>VIP经验</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>体力</t>
+  </si>
+  <si>
+    <t>法力值</t>
+  </si>
+  <si>
+    <t>玩家游戏金币</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>玩家的帐号</t>
+  </si>
+  <si>
+    <t>玩家连接服务器的KEY</t>
+  </si>
+  <si>
+    <t>升级需要的经验</t>
+  </si>
+  <si>
+    <t>转生次数</t>
+  </si>
+  <si>
+    <t>PVP攻击力</t>
+  </si>
+  <si>
+    <t>PVP防御力</t>
+  </si>
+  <si>
+    <t>上线次数</t>
+  </si>
+  <si>
+    <t>在线时间</t>
+  </si>
+  <si>
+    <t>上次下线时间</t>
+  </si>
+  <si>
+    <t>本次上线时间</t>
+  </si>
+  <si>
+    <t>吸血</t>
+  </si>
+  <si>
+    <t>反伤</t>
+  </si>
+  <si>
+    <t>暴击</t>
+  </si>
+  <si>
+    <t>生命值回复</t>
+  </si>
+  <si>
+    <t>体力回复</t>
+  </si>
+  <si>
+    <t>MP回复</t>
+  </si>
+  <si>
+    <t>物理攻击力</t>
+  </si>
+  <si>
+    <t>物理防御力</t>
+  </si>
+  <si>
+    <t>移动速度,默认单位是10000=1米</t>
+  </si>
+  <si>
+    <t>攻击速度默认10000</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>雷电</t>
+  </si>
+  <si>
+    <t>土</t>
+  </si>
+  <si>
+    <t>冰</t>
+  </si>
+  <si>
+    <t>毒</t>
+  </si>
+  <si>
+    <t>火抗</t>
+  </si>
+  <si>
+    <t>雷电抗</t>
+  </si>
+  <si>
+    <t>土抗</t>
+  </si>
+  <si>
+    <t>冰抗</t>
+  </si>
+  <si>
+    <t>毒抗</t>
+  </si>
+  <si>
+    <t>眩晕开关</t>
+  </si>
+  <si>
+    <t>移动开关</t>
+  </si>
+  <si>
+    <t>技能开关</t>
+  </si>
+  <si>
+    <t>物理免疫开关</t>
+  </si>
+  <si>
+    <t>魔法免疫开关</t>
+  </si>
+  <si>
+    <t>BUFF免疫开关</t>
+  </si>
+  <si>
+    <t>今日在线时长{截至至本次上线时间}</t>
+  </si>
+  <si>
+    <t>GM等级</t>
+  </si>
+  <si>
+    <t>登陆的服ID</t>
+  </si>
+  <si>
+    <t>登陆的网关ID</t>
+  </si>
+  <si>
+    <t>公会ID</t>
+  </si>
+  <si>
+    <t>所在队伍ID</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Col</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>SaveInterval</t>
+  </si>
+  <si>
+    <t>RelationValue</t>
+  </si>
+  <si>
+    <t>GUID</t>
+  </si>
+  <si>
+    <t>ConfigID</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>Equip1</t>
+  </si>
+  <si>
+    <t>Equip2</t>
+  </si>
+  <si>
+    <t>Equip3</t>
+  </si>
+  <si>
+    <t>Equip4</t>
+  </si>
+  <si>
+    <t>Equip5</t>
+  </si>
+  <si>
+    <t>Equip6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Talent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Talent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Talent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Talent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Talent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>Skill1</t>
+  </si>
+  <si>
+    <t>Skill2</t>
+  </si>
+  <si>
+    <t>Skill3</t>
+  </si>
+  <si>
+    <t>Skill4</t>
+  </si>
+  <si>
+    <t>Skill5</t>
+  </si>
+  <si>
+    <t>FightSkill</t>
+  </si>
+  <si>
+    <t>PlayerHero</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>FightPos</t>
+  </si>
+  <si>
+    <t>PlayerFightHero</t>
+  </si>
+  <si>
+    <t>WearGUID</t>
+  </si>
+  <si>
+    <t>ExpiredType</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>RandPropertyID</t>
+  </si>
+  <si>
+    <t>SlotCount</t>
+  </si>
+  <si>
+    <t>InlayStone1</t>
+  </si>
+  <si>
+    <t>InlayStone2</t>
+  </si>
+  <si>
+    <t>InlayStone3</t>
+  </si>
+  <si>
+    <t>InlayStone4</t>
+  </si>
+  <si>
+    <t>InlayStone5</t>
+  </si>
+  <si>
+    <t>InlayStone6</t>
+  </si>
+  <si>
+    <t>InlayStone7</t>
+  </si>
+  <si>
+    <t>InlayStone8</t>
+  </si>
+  <si>
+    <t>InlayStone9</t>
+  </si>
+  <si>
+    <t>InlayStone10</t>
+  </si>
+  <si>
+    <t>IntensifyLevel</t>
+  </si>
+  <si>
+    <t>ElementLevel1_FIRE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ElementLevel2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_LIGHT</t>
+    </r>
+  </si>
+  <si>
+    <t>ElementLevel3_Wind</t>
+  </si>
+  <si>
+    <t>ElementLevel4_ICE</t>
+  </si>
+  <si>
+    <t>ElementLevel5_POISON</t>
+  </si>
+  <si>
+    <t>BagEquipList</t>
+  </si>
+  <si>
+    <t>普通背包</t>
+  </si>
+  <si>
+    <t>ItemCount</t>
+  </si>
+  <si>
+    <t>Bound</t>
+  </si>
+  <si>
+    <t>BagItemList</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EF_WIND</t>
+    </r>
+  </si>
+  <si>
+    <t>HeroPropertyValue</t>
+  </si>
+  <si>
+    <t>所有和战斗，药水有关的，都在这里NPC怪物只有基础和BUFF影响，因此针对玩家和怪物，分2个表.0职业等级叠加属性,1装备属性,2永久BUFF属性,3动态BUFF属性</t>
+  </si>
+  <si>
+    <t>CommPropertyValue</t>
+  </si>
+  <si>
+    <t>MonsterID</t>
+  </si>
+  <si>
+    <t>CurrentKillCount</t>
+  </si>
+  <si>
+    <t>RequireKillCount</t>
+  </si>
+  <si>
+    <t>TaskID</t>
+  </si>
+  <si>
+    <t>TaskMonsterList</t>
+  </si>
+  <si>
+    <t>任务杀怪表</t>
+  </si>
+  <si>
+    <t>TaskStatus</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>TaskList</t>
+  </si>
+  <si>
+    <t>任务表</t>
+  </si>
+  <si>
+    <t>BuildingID</t>
+  </si>
+  <si>
+    <t>BuildingGUID</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>PosX</t>
+  </si>
+  <si>
+    <t>PosY</t>
+  </si>
+  <si>
+    <t>PosZ</t>
+  </si>
+  <si>
+    <t>StateStartTime</t>
+  </si>
+  <si>
+    <t>StateEndTime</t>
+  </si>
+  <si>
+    <t>BuildingList</t>
+  </si>
+  <si>
+    <t>BuildingListProduce</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>lua</t>
+  </si>
+  <si>
+    <t>测试组件</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -35,27 +1247,364 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -63,61 +1612,366 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="31" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <b val="1"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFD7D7D7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+    <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -167,71 +2021,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -449,16 +2303,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:BN7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
@@ -466,21 +2321,3430 @@
     <col min="7" max="7" width="9.375" customWidth="1"/>
     <col min="8" max="8" width="17.75" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="81" customWidth="1"/>
+    <col min="10" max="10" width="38.5" customWidth="1"/>
+    <col min="11" max="11" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B1" s="1"/>
+    <row r="1" s="8" customFormat="1" spans="1:66">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" s="9" customFormat="1" spans="1:66">
+      <c r="A2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="BG2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="BJ2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="BK2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="BL2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="BM2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="BN2" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" s="9" customFormat="1" spans="1:66">
+      <c r="A3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="9" customFormat="1" spans="1:66">
+      <c r="A4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="9" customFormat="1" spans="1:66">
+      <c r="A5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="X5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BL5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="9" customFormat="1" spans="1:66">
+      <c r="A6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="9" customFormat="1" spans="1:66">
+      <c r="A7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC7" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD7" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE7" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF7" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG7" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK7" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL7" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM7" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN7" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP7" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ7" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR7" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS7" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT7" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU7" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV7" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AX7" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY7" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ7" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BB7" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC7" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="BD7" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE7" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF7" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG7" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH7" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="BI7" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="BJ7" s="11"/>
+      <c r="BK7" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="BL7" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="BM7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN7" s="11" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F6 F7:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="13.875" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="2">
+        <v>128</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="13.875" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="2">
+        <v>128</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="8.25" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"lua,python,C#,js"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="14" max="14" width="17.75" customWidth="1"/>
+    <col min="15" max="16" width="15.25" customWidth="1"/>
+    <col min="33" max="33" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>142</v>
+      </c>
+      <c r="P1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2">
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 D1:F2">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C2">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:AH2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="14" max="14" width="12.75" customWidth="1"/>
+    <col min="15" max="15" width="16.5" customWidth="1"/>
+    <col min="16" max="16" width="8.375" customWidth="1"/>
+    <col min="17" max="17" width="17.75" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="28" width="16.5" customWidth="1"/>
+    <col min="29" max="29" width="19" customWidth="1"/>
+    <col min="30" max="34" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" t="s">
+        <v>169</v>
+      </c>
+      <c r="S1" t="s">
+        <v>170</v>
+      </c>
+      <c r="T1" t="s">
+        <v>171</v>
+      </c>
+      <c r="U1" t="s">
+        <v>172</v>
+      </c>
+      <c r="V1" t="s">
+        <v>173</v>
+      </c>
+      <c r="W1" t="s">
+        <v>174</v>
+      </c>
+      <c r="X1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2">
+        <v>256</v>
+      </c>
+      <c r="C2">
+        <v>23</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1 R1 Y1:AH1 Q$1:Q$1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576 M2:M1048576 R2:R1048576 Y2:AH1048576 S$1:X$1048576 N$1:P$1048576">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="15" max="15" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N1" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2">
+        <v>128</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:P$1048576">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:AN2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="26.875" customWidth="1"/>
+    <col min="12" max="15" width="12.75" customWidth="1"/>
+    <col min="16" max="16" width="17.75" customWidth="1"/>
+    <col min="17" max="17" width="15.25" customWidth="1"/>
+    <col min="18" max="18" width="20.25" customWidth="1"/>
+    <col min="19" max="19" width="12.75" customWidth="1"/>
+    <col min="20" max="20" width="17.75" customWidth="1"/>
+    <col min="21" max="21" width="15.25" customWidth="1"/>
+    <col min="22" max="22" width="20.25" customWidth="1"/>
+    <col min="23" max="23" width="15.25" customWidth="1"/>
+    <col min="24" max="24" width="14" customWidth="1"/>
+    <col min="25" max="25" width="12.75" customWidth="1"/>
+    <col min="26" max="26" width="14" customWidth="1"/>
+    <col min="27" max="28" width="11.625" customWidth="1"/>
+    <col min="29" max="29" width="15.25" customWidth="1"/>
+    <col min="30" max="30" width="12.75" customWidth="1"/>
+    <col min="31" max="32" width="14" customWidth="1"/>
+    <col min="33" max="33" width="11.625" customWidth="1"/>
+    <col min="34" max="35" width="15.25" customWidth="1"/>
+    <col min="36" max="36" width="14" customWidth="1"/>
+    <col min="37" max="37" width="15.25" customWidth="1"/>
+    <col min="38" max="38" width="19" customWidth="1"/>
+    <col min="41" max="41" width="12.75" customWidth="1"/>
+    <col min="42" max="42" width="14" customWidth="1"/>
+    <col min="43" max="43" width="11.625" customWidth="1"/>
+    <col min="44" max="44" width="15.25" customWidth="1"/>
+    <col min="45" max="45" width="12.75" customWidth="1"/>
+    <col min="46" max="46" width="14" customWidth="1"/>
+    <col min="47" max="47" width="11.625" customWidth="1"/>
+    <col min="48" max="49" width="15.25" customWidth="1"/>
+    <col min="50" max="50" width="14" customWidth="1"/>
+    <col min="51" max="51" width="15.25" customWidth="1"/>
+    <col min="52" max="52" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>29</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K19 AF2:AF1048576 L2:N1048576 O$1:AE$1048576 AG$1:AN$1048576 AO$1:BB$1048576">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:AN2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L$1:AN$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="26.875" customWidth="1"/>
+    <col min="12" max="15" width="12.75" customWidth="1"/>
+    <col min="16" max="16" width="17.75" customWidth="1"/>
+    <col min="17" max="17" width="15.25" customWidth="1"/>
+    <col min="18" max="18" width="20.25" customWidth="1"/>
+    <col min="19" max="19" width="12.75" customWidth="1"/>
+    <col min="20" max="20" width="17.75" customWidth="1"/>
+    <col min="21" max="21" width="15.25" customWidth="1"/>
+    <col min="22" max="22" width="20.25" customWidth="1"/>
+    <col min="23" max="23" width="15.25" customWidth="1"/>
+    <col min="24" max="24" width="14" customWidth="1"/>
+    <col min="25" max="25" width="12.75" customWidth="1"/>
+    <col min="26" max="26" width="14" customWidth="1"/>
+    <col min="27" max="28" width="11.625" customWidth="1"/>
+    <col min="29" max="29" width="15.25" customWidth="1"/>
+    <col min="30" max="30" width="12.75" customWidth="1"/>
+    <col min="31" max="32" width="14" customWidth="1"/>
+    <col min="33" max="33" width="11.625" customWidth="1"/>
+    <col min="34" max="35" width="15.25" customWidth="1"/>
+    <col min="36" max="36" width="14" customWidth="1"/>
+    <col min="37" max="37" width="15.25" customWidth="1"/>
+    <col min="38" max="38" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>29</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF1048576 L2:N1048576 O$1:AE$1048576 AG$1:AN$1048576">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16:I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="17.75" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="14" width="22.75" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:O$1048576">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="17.75" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M1" t="s">
+        <v>201</v>
+      </c>
+      <c r="N1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2">
+        <v>512</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Player.xlsx
@@ -4,26 +4,28 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19455" windowHeight="9990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
-    <sheet name="Record_PlayerHero" sheetId="2" r:id="rId2"/>
-    <sheet name="Record_PlayerFightHero" sheetId="3" r:id="rId3"/>
-    <sheet name="Record_BagEquipList" sheetId="4" r:id="rId4"/>
-    <sheet name="Record_BagItemList" sheetId="5" r:id="rId5"/>
-    <sheet name="Record_HeroPropertyValue" sheetId="6" r:id="rId6"/>
-    <sheet name="Record_CommPropertyValue" sheetId="7" r:id="rId7"/>
-    <sheet name="Record_TaskMonsterList" sheetId="8" r:id="rId8"/>
-    <sheet name="Record_TaskList" sheetId="9" r:id="rId9"/>
-    <sheet name="Record_BuildingList" sheetId="10" r:id="rId10"/>
-    <sheet name="Record_BuildingProduce" sheetId="11" r:id="rId11"/>
-    <sheet name="Component" sheetId="12" r:id="rId12"/>
+    <sheet name="Property2" sheetId="2" r:id="rId2"/>
+    <sheet name="Record_PlayerHero" sheetId="3" r:id="rId3"/>
+    <sheet name="Record_PlayerFightHero" sheetId="4" r:id="rId4"/>
+    <sheet name="Record_BagEquipList" sheetId="5" r:id="rId5"/>
+    <sheet name="Record_BagItemList" sheetId="6" r:id="rId6"/>
+    <sheet name="Record_HeroPropertyValue" sheetId="7" r:id="rId7"/>
+    <sheet name="Record_CommPropertyValue" sheetId="8" r:id="rId8"/>
+    <sheet name="Record_TaskMonsterList" sheetId="9" r:id="rId9"/>
+    <sheet name="Record_TaskList" sheetId="10" r:id="rId10"/>
+    <sheet name="Record_BuildingList" sheetId="11" r:id="rId11"/>
+    <sheet name="Record_BuildingProduce" sheetId="12" r:id="rId12"/>
+    <sheet name="Component" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -40,10 +42,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
@@ -52,10 +55,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
@@ -64,10 +68,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>经验</t>
+          <t xml:space="preserve">经验</t>
         </r>
       </text>
     </comment>
@@ -76,10 +81,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>星级</t>
+          <t xml:space="preserve">星级</t>
         </r>
       </text>
     </comment>
@@ -98,10 +104,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
@@ -110,10 +117,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
@@ -122,10 +130,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
@@ -134,10 +143,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
@@ -146,10 +156,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
@@ -158,10 +169,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
@@ -170,10 +182,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
@@ -182,10 +195,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
@@ -204,10 +218,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
@@ -216,10 +231,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
@@ -228,10 +244,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
@@ -240,10 +257,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
@@ -252,10 +270,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
@@ -264,10 +283,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
@@ -276,10 +296,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
@@ -288,10 +309,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
@@ -310,10 +332,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
@@ -322,10 +345,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
@@ -334,10 +358,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
@@ -346,10 +371,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
@@ -368,10 +394,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>任务ID</t>
+          <t xml:space="preserve">任务ID</t>
         </r>
       </text>
     </comment>
@@ -380,10 +407,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>任务状态，见NFDefine.proto中ETaskState</t>
+          <t xml:space="preserve">任务状态，见NFDefine.proto中ETaskState</t>
         </r>
       </text>
     </comment>
@@ -392,10 +420,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>当前进度</t>
+          <t xml:space="preserve">当前进度</t>
         </r>
       </text>
     </comment>
@@ -414,10 +443,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>建筑ID</t>
+          <t xml:space="preserve">建筑ID</t>
         </r>
       </text>
     </comment>
@@ -436,10 +466,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>建筑ID</t>
+          <t xml:space="preserve">建筑ID</t>
         </r>
       </text>
     </comment>
@@ -540,6 +571,156 @@
     <t>OnlineTime</t>
   </si>
   <si>
+    <t>TotalLineTime</t>
+  </si>
+  <si>
+    <t>GMLevel</t>
+  </si>
+  <si>
+    <t>LoadPropertyFinish</t>
+  </si>
+  <si>
+    <t>GameID</t>
+  </si>
+  <si>
+    <t>GateID</t>
+  </si>
+  <si>
+    <t>GuildID</t>
+  </si>
+  <si>
+    <t>TeamID</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>角色名</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>种族</t>
+  </si>
+  <si>
+    <t>阵营</t>
+  </si>
+  <si>
+    <t>玩家下线的时候需要保存上次在线的场景</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>显示的名字</t>
+  </si>
+  <si>
+    <t>预设路径</t>
+  </si>
+  <si>
+    <t>首要目标</t>
+  </si>
+  <si>
+    <t>角色类型</t>
+  </si>
+  <si>
+    <t>职业</t>
+  </si>
+  <si>
+    <t>经验获得,如果是怪物，则是掉落经验</t>
+  </si>
+  <si>
+    <t>VIP经验</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>体力</t>
+  </si>
+  <si>
+    <t>法力值</t>
+  </si>
+  <si>
+    <t>玩家游戏金币</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>玩家的帐号</t>
+  </si>
+  <si>
+    <t>玩家连接服务器的KEY</t>
+  </si>
+  <si>
+    <t>升级需要的经验</t>
+  </si>
+  <si>
+    <t>转生次数</t>
+  </si>
+  <si>
+    <t>PVP攻击力</t>
+  </si>
+  <si>
+    <t>PVP防御力</t>
+  </si>
+  <si>
+    <t>上线次数</t>
+  </si>
+  <si>
+    <t>在线时间</t>
+  </si>
+  <si>
+    <t>上次下线时间</t>
+  </si>
+  <si>
+    <t>本次上线时间</t>
+  </si>
+  <si>
+    <t>今日在线时长{截至至本次上线时间}</t>
+  </si>
+  <si>
+    <t>GM等级</t>
+  </si>
+  <si>
+    <t>登陆的服ID</t>
+  </si>
+  <si>
+    <t>登陆的网关ID</t>
+  </si>
+  <si>
+    <t>公会ID</t>
+  </si>
+  <si>
+    <t>所在队伍ID</t>
+  </si>
+  <si>
     <t>SUCKBLOOD</t>
   </si>
   <si>
@@ -627,138 +808,6 @@
     <t>BUFF_GATE</t>
   </si>
   <si>
-    <t>TotalLineTime</t>
-  </si>
-  <si>
-    <t>GMLevel</t>
-  </si>
-  <si>
-    <t>LoadPropertyFinish</t>
-  </si>
-  <si>
-    <t>GameID</t>
-  </si>
-  <si>
-    <t>GateID</t>
-  </si>
-  <si>
-    <t>GuildID</t>
-  </si>
-  <si>
-    <t>TeamID</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>Public</t>
-  </si>
-  <si>
-    <t>Private</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>Cache</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>角色名</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>种族</t>
-  </si>
-  <si>
-    <t>阵营</t>
-  </si>
-  <si>
-    <t>玩家下线的时候需要保存上次在线的场景</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>显示的名字</t>
-  </si>
-  <si>
-    <t>预设路径</t>
-  </si>
-  <si>
-    <t>首要目标</t>
-  </si>
-  <si>
-    <t>角色类型</t>
-  </si>
-  <si>
-    <t>职业</t>
-  </si>
-  <si>
-    <t>经验获得,如果是怪物，则是掉落经验</t>
-  </si>
-  <si>
-    <t>VIP经验</t>
-  </si>
-  <si>
-    <t>生命值</t>
-  </si>
-  <si>
-    <t>体力</t>
-  </si>
-  <si>
-    <t>法力值</t>
-  </si>
-  <si>
-    <t>玩家游戏金币</t>
-  </si>
-  <si>
-    <t>钻石</t>
-  </si>
-  <si>
-    <t>玩家的帐号</t>
-  </si>
-  <si>
-    <t>玩家连接服务器的KEY</t>
-  </si>
-  <si>
-    <t>升级需要的经验</t>
-  </si>
-  <si>
-    <t>转生次数</t>
-  </si>
-  <si>
-    <t>PVP攻击力</t>
-  </si>
-  <si>
-    <t>PVP防御力</t>
-  </si>
-  <si>
-    <t>上线次数</t>
-  </si>
-  <si>
-    <t>在线时间</t>
-  </si>
-  <si>
-    <t>上次下线时间</t>
-  </si>
-  <si>
-    <t>本次上线时间</t>
-  </si>
-  <si>
     <t>吸血</t>
   </si>
   <si>
@@ -835,24 +884,6 @@
   </si>
   <si>
     <t>BUFF免疫开关</t>
-  </si>
-  <si>
-    <t>今日在线时长{截至至本次上线时间}</t>
-  </si>
-  <si>
-    <t>GM等级</t>
-  </si>
-  <si>
-    <t>登陆的服ID</t>
-  </si>
-  <si>
-    <t>登陆的网关ID</t>
-  </si>
-  <si>
-    <t>公会ID</t>
-  </si>
-  <si>
-    <t>所在队伍ID</t>
   </si>
   <si>
     <t>Row</t>
@@ -1234,12 +1265,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1261,16 +1292,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1286,6 +1324,83 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1299,84 +1414,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1391,10 +1429,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1431,13 +1469,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,37 +1535,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1497,31 +1577,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1533,25 +1601,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1569,42 +1625,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1614,49 +1652,106 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1678,6 +1773,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1687,17 +1806,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1715,152 +1843,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1885,17 +2013,59 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1952,7 +2122,7 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -2305,10 +2475,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:BN7"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -2321,1406 +2491,797 @@
     <col min="7" max="7" width="9.375" customWidth="1"/>
     <col min="8" max="8" width="17.75" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="38.5" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
     <col min="11" max="11" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:66">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+    <row r="1" s="18" customFormat="1" spans="1:37">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AD1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AE1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AF1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AG1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AH1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AI1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AJ1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AK1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="10" t="s">
+    </row>
+    <row r="2" s="19" customFormat="1" spans="1:37">
+      <c r="A2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="10" t="s">
+      <c r="B2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="10" t="s">
+      <c r="C2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="10" t="s">
+      <c r="K2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ2" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK2" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" s="19" customFormat="1" spans="1:37">
+      <c r="A3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="10" t="s">
+      <c r="B3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="19" customFormat="1" spans="1:37">
+      <c r="A4" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="10" t="s">
+      <c r="B4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="19" customFormat="1" spans="1:37">
+      <c r="A5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="10" t="s">
+      <c r="B5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="X5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="19" customFormat="1" spans="1:37">
+      <c r="A6" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="10" t="s">
+      <c r="B6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="10" customFormat="1" ht="68.25" spans="1:37">
+      <c r="A7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="10" t="s">
+      <c r="B7" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="10" t="s">
+      <c r="C7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="10" t="s">
+      <c r="D7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="10" t="s">
+      <c r="E7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="10" t="s">
+      <c r="F7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="10" t="s">
+      <c r="G7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="10" t="s">
+      <c r="H7" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="10" t="s">
+      <c r="I7" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="10" t="s">
+      <c r="J7" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="10" t="s">
+      <c r="K7" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="10" t="s">
+      <c r="L7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="M7" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="10" t="s">
+      <c r="N7" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="10" t="s">
+      <c r="O7" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="10" t="s">
+      <c r="Q7" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="10" t="s">
+      <c r="R7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="10" t="s">
+      <c r="S7" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="10" t="s">
+      <c r="T7" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="10" t="s">
+      <c r="U7" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="10" t="s">
+      <c r="V7" s="17" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" s="9" customFormat="1" spans="1:66">
-      <c r="A2" s="11" t="s">
+      <c r="W7" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="X7" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="Y7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="Z7" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AS2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AT2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AW2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AX2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AZ2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="BA2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="BC2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="BD2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="BE2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="BF2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="BG2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="BH2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="BJ2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="BK2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="BL2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="BM2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="BN2" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" s="9" customFormat="1" spans="1:66">
-      <c r="A3" s="11" t="s">
+      <c r="AA7" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="U3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="V3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="X3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BI3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ3" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK3" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN3" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="9" customFormat="1" spans="1:66">
-      <c r="A4" s="11" t="s">
+      <c r="AB7" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="U4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="V4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="X4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BI4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN4" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" s="9" customFormat="1" spans="1:66">
-      <c r="A5" s="11" t="s">
+      <c r="AC7" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="S5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="T5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="U5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="V5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="X5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BI5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BM5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN5" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" s="9" customFormat="1" spans="1:66">
-      <c r="A6" s="11" t="s">
+      <c r="AD7" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="V6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="W6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="9" customFormat="1" spans="1:66">
-      <c r="A7" s="11" t="s">
+      <c r="AE7" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="AF7" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="AI7" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="AJ7" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="AK7" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="V7" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="W7" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="X7" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y7" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z7" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA7" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB7" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC7" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD7" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF7" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG7" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH7" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI7" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ7" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK7" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL7" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AM7" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN7" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO7" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP7" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AQ7" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="AR7" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS7" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT7" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AU7" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AV7" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AW7" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AX7" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY7" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AZ7" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA7" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="BB7" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="BC7" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="BD7" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="BE7" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="BF7" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="BG7" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH7" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI7" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="BJ7" s="11"/>
-      <c r="BK7" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="BL7" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="BM7" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="BN7" s="11" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3736,6 +3297,138 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="17.75" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M1" t="s">
+        <v>201</v>
+      </c>
+      <c r="N1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2">
+        <v>512</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:S2"/>
@@ -3770,16 +3463,16 @@
         <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>137</v>
@@ -3791,7 +3484,7 @@
         <v>139</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>205</v>
@@ -3851,40 +3544,40 @@
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="4" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
@@ -3898,7 +3591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:S2"/>
@@ -3933,16 +3626,16 @@
         <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>137</v>
@@ -3954,7 +3647,7 @@
         <v>139</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>205</v>
@@ -4014,40 +3707,40 @@
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="4" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
@@ -4061,7 +3754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D2"/>
@@ -4088,7 +3781,7 @@
         <v>216</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4107,11 +3800,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"lua,python,C#,js"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4123,10 +3816,675 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:AD7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="8" customFormat="1" ht="27" spans="1:30">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" s="9" customFormat="1" spans="1:30">
+      <c r="A2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" s="9" customFormat="1" spans="1:30">
+      <c r="A3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="9" customFormat="1" spans="1:30">
+      <c r="A4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="9" customFormat="1" spans="1:30">
+      <c r="A5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="9" customFormat="1" spans="1:30">
+      <c r="A6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="10" customFormat="1" ht="68.25" spans="1:30">
+      <c r="A7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="T7" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="U7" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="V7" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="W7" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="X7" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y7" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z7" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA7" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB7" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC7" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD7" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -4154,16 +4512,16 @@
         <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
         <v>137</v>
@@ -4175,7 +4533,7 @@
         <v>139</v>
       </c>
       <c r="K1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s">
         <v>140</v>
@@ -4277,70 +4635,70 @@
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="W2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="AG2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4359,7 +4717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:M2"/>
@@ -4384,16 +4742,16 @@
         <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
         <v>137</v>
@@ -4405,7 +4763,7 @@
         <v>139</v>
       </c>
       <c r="K1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s">
         <v>140</v>
@@ -4447,10 +4805,10 @@
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4467,7 +4825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:AH2"/>
@@ -4505,16 +4863,16 @@
         <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
         <v>137</v>
@@ -4526,7 +4884,7 @@
         <v>139</v>
       </c>
       <c r="K1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s">
         <v>140</v>
@@ -4633,73 +4991,73 @@
         <v>187</v>
       </c>
       <c r="L2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="M2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="Q2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="R2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AE2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AF2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AG2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4721,7 +5079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:P2"/>
@@ -4754,16 +5112,16 @@
         <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
         <v>137</v>
@@ -4775,7 +5133,7 @@
         <v>139</v>
       </c>
       <c r="K1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s">
         <v>141</v>
@@ -4828,19 +5186,19 @@
         <v>187</v>
       </c>
       <c r="L2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4848,11 +5206,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:P$1048576">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:P$1048576">
-      <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4861,7 +5219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:AN2"/>
@@ -4924,16 +5282,16 @@
         <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
         <v>137</v>
@@ -4945,94 +5303,94 @@
         <v>139</v>
       </c>
       <c r="K1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="N1" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="O1" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="P1" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="Q1" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="R1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="S1" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="T1" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="U1" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="V1" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="W1" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="X1" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="Y1" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="Z1" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="AA1" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="AB1" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="AC1" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="AD1" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="AE1" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="AF1" s="6" t="s">
         <v>191</v>
       </c>
       <c r="AG1" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AH1" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="AI1" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="AJ1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="AK1" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="AL1" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="AM1" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="AN1" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:40">
@@ -5070,91 +5428,91 @@
         <v>193</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="Q2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="R2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="W2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="X2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="Z2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AA2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AB2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AC2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AD2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AE2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AF2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AG2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AI2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AJ2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AK2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AL2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AM2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AN2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -5176,7 +5534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:AN2"/>
@@ -5228,16 +5586,16 @@
         <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
         <v>137</v>
@@ -5249,94 +5607,94 @@
         <v>139</v>
       </c>
       <c r="K1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="N1" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="O1" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="P1" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="Q1" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="R1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="S1" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="T1" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="U1" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="V1" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="W1" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="X1" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="Y1" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="Z1" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="AA1" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="AB1" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="AC1" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="AD1" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="AE1" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="AF1" s="6" t="s">
         <v>191</v>
       </c>
       <c r="AG1" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AH1" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="AI1" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="AJ1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="AK1" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="AL1" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="AM1" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="AN1" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:40">
@@ -5374,91 +5732,91 @@
         <v>193</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="Q2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="R2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="W2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="X2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="Z2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AA2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AB2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AC2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AD2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AE2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AF2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AG2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AI2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AJ2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AK2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AL2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AM2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AN2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -5480,7 +5838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:O2"/>
@@ -5515,16 +5873,16 @@
         <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
         <v>137</v>
@@ -5536,7 +5894,7 @@
         <v>139</v>
       </c>
       <c r="K1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s">
         <v>195</v>
@@ -5586,16 +5944,16 @@
         <v>200</v>
       </c>
       <c r="L2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -5603,142 +5961,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:O$1048576">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="17.75" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="17.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" t="s">
-        <v>198</v>
-      </c>
-      <c r="M1" t="s">
-        <v>201</v>
-      </c>
-      <c r="N1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B2">
-        <v>512</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="L2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:O$1048576">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Player.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216">
   <si>
     <t>Id</t>
   </si>
@@ -550,6 +550,9 @@
   </si>
   <si>
     <t>Cache</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
   <si>
     <t>Desc</t>
@@ -1094,6 +1097,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1102,16 +1113,44 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1119,6 +1158,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1139,92 +1186,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1239,13 +1211,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1266,13 +1269,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,7 +1287,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,7 +1425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,150 +1449,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1493,6 +1490,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1550,6 +1560,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -1559,67 +1582,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1640,6 +1604,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1653,157 +1632,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1849,7 +1872,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1858,25 +1881,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1885,13 +1914,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2302,13 +2331,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -2322,121 +2351,121 @@
     <col min="11" max="11" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="1" spans="1:37">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
+    <row r="1" s="27" customFormat="1" spans="1:37">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="T1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="V1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="W1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="X1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Y1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="Z1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AA1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AB1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AC1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AD1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AE1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AF1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AG1" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AH1" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AI1" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="28" t="s">
+      <c r="AJ1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="28" t="s">
+      <c r="AK1" s="30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" s="26" customFormat="1" spans="1:37">
-      <c r="A2" s="29" t="s">
+    <row r="2" s="28" customFormat="1" spans="1:37">
+      <c r="A2" s="31" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2548,8 +2577,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" s="26" customFormat="1" spans="1:37">
-      <c r="A3" s="29" t="s">
+    <row r="3" s="28" customFormat="1" spans="1:37">
+      <c r="A3" s="31" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="3" t="b">
@@ -2661,8 +2690,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="26" customFormat="1" spans="1:37">
-      <c r="A4" s="29" t="s">
+    <row r="4" s="28" customFormat="1" spans="1:37">
+      <c r="A4" s="31" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="3" t="b">
@@ -2774,8 +2803,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="26" customFormat="1" spans="1:37">
-      <c r="A5" s="29" t="s">
+    <row r="5" s="28" customFormat="1" spans="1:37">
+      <c r="A5" s="31" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="3" t="b">
@@ -2887,8 +2916,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="26" customFormat="1" spans="1:37">
-      <c r="A6" s="29" t="s">
+    <row r="6" s="28" customFormat="1" spans="1:37">
+      <c r="A6" s="31" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="3" t="b">
@@ -3000,120 +3029,234 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="18" customFormat="1" ht="68.25" spans="1:37">
-      <c r="A7" s="23" t="s">
+    <row r="7" s="18" customFormat="1" spans="1:37">
+      <c r="A7" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="19" customFormat="1" ht="68.25" spans="1:37">
+      <c r="A8" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="B8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="C8" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="D8" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="E8" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="F8" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="G8" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="H8" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="I8" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="J8" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="K8" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="L8" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="24" t="s">
+      <c r="M8" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="O7" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="P7" s="24" t="s">
+      <c r="N8" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="24" t="s">
+      <c r="O8" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="R7" s="24" t="s">
+      <c r="Q8" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="24" t="s">
+      <c r="R8" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="T7" s="24" t="s">
+      <c r="S8" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="U7" s="24" t="s">
+      <c r="T8" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="V7" s="24" t="s">
+      <c r="U8" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="W7" s="24" t="s">
+      <c r="V8" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="X7" s="24" t="s">
+      <c r="W8" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="Y7" s="24" t="s">
+      <c r="X8" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="Z7" s="24" t="s">
+      <c r="Y8" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="AA7" s="24" t="s">
+      <c r="Z8" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="AB7" s="24" t="s">
+      <c r="AA8" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AC7" s="24" t="s">
+      <c r="AB8" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="AD7" s="24" t="s">
+      <c r="AC8" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="AE7" s="24" t="s">
+      <c r="AD8" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="AF7" s="24" t="s">
+      <c r="AE8" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24" t="s">
+      <c r="AF8" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="AI7" s="24" t="s">
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="AJ7" s="24" t="s">
+      <c r="AI8" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="AK7" s="24" t="s">
+      <c r="AJ8" s="26" t="s">
         <v>79</v>
       </c>
+      <c r="AK8" s="26" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F6 F7:F1048576">
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AK7 F1:F6 F8:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3126,662 +3269,760 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AD7"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="1" ht="27" spans="1:30">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="G1" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="I1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="J1" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="K1" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="M1" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="N1" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="O1" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="Q1" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="R1" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="S1" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="T1" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="U1" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="V1" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="W1" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="X1" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Y1" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="Z1" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AA1" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AB1" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AC1" s="21" t="s">
         <v>108</v>
       </c>
+      <c r="AD1" s="21" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="2" s="17" customFormat="1" spans="1:30">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD2" s="22" t="s">
+      <c r="B2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="23" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" s="17" customFormat="1" spans="1:30">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="U3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="V3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="W3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="X3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="22" t="b">
+      <c r="B3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="23" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" s="17" customFormat="1" spans="1:30">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="U4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="V4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="W4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="X4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="22" t="b">
+      <c r="B4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="23" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" s="17" customFormat="1" spans="1:30">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="V5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="W5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="22" t="b">
+      <c r="B5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="23" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" s="17" customFormat="1" spans="1:30">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="V6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="W6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="18" customFormat="1" ht="68.25" spans="1:30">
-      <c r="A7" s="23" t="s">
+      <c r="B6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="18" customFormat="1" spans="1:30">
+      <c r="A7" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="19" customFormat="1" ht="68.25" spans="1:30">
+      <c r="A8" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="C8" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="24" t="s">
+      <c r="D8" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="I7" s="24" t="s">
+      <c r="H8" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="I8" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="J8" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="K8" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="L8" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="N7" s="24" t="s">
+      <c r="M8" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="N8" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="P7" s="24" t="s">
+      <c r="O8" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="Q7" s="24" t="s">
+      <c r="P8" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="R7" s="24" t="s">
+      <c r="Q8" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="S7" s="24" t="s">
+      <c r="R8" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="T7" s="24" t="s">
+      <c r="S8" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="U7" s="24" t="s">
+      <c r="T8" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="V7" s="24" t="s">
+      <c r="U8" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="W7" s="24" t="s">
+      <c r="V8" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="X7" s="24" t="s">
+      <c r="W8" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="Y7" s="24" t="s">
+      <c r="X8" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="Z7" s="24" t="s">
+      <c r="Y8" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="AA7" s="24" t="s">
+      <c r="Z8" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="AB7" s="24" t="s">
+      <c r="AA8" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="AC7" s="24" t="s">
+      <c r="AB8" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="AD7" s="24" t="s">
+      <c r="AC8" s="26" t="s">
         <v>134</v>
       </c>
+      <c r="AD8" s="26" t="s">
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AK7">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -3818,12 +4059,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" s="3">
         <v>64</v>
@@ -3831,7 +4072,7 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3">
         <v>22</v>
@@ -3871,70 +4112,70 @@
     </row>
     <row r="8" s="3" customFormat="1" spans="1:22">
       <c r="A8" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:22">
@@ -4007,7 +4248,7 @@
     </row>
     <row r="10" s="3" customFormat="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="12"/>
     </row>
@@ -4016,12 +4257,12 @@
         <v>0</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B12" s="3">
         <v>5</v>
@@ -4029,7 +4270,7 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
@@ -4069,10 +4310,10 @@
     </row>
     <row r="18" s="3" customFormat="1" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:2">
@@ -4085,7 +4326,7 @@
     </row>
     <row r="20" s="3" customFormat="1" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" s="12"/>
     </row>
@@ -4094,12 +4335,12 @@
         <v>0</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B22" s="3">
         <v>15</v>
@@ -4107,7 +4348,7 @@
     </row>
     <row r="23" s="3" customFormat="1" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B23" s="3">
         <v>29</v>
@@ -4147,91 +4388,91 @@
     </row>
     <row r="28" s="3" customFormat="1" spans="1:29">
       <c r="A28" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AB28" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC28" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1" spans="1:29">
@@ -4325,22 +4566,22 @@
     </row>
     <row r="30" s="3" customFormat="1" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A29:C29 U29 D28:T29 V28:AC29">
-      <formula1>"int,string,float,object"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B17 B27 C30 C21:C27 G11:G17 G18:G19 G20:G27 G30:G1048576 A4:B6 A14:B16 D11:F17 A24:B26 D18:F19 D20:F27 D30:F1048576">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20 B31:B1048576 C11:C17 C18:C19 C31:C1048576 A2:B3 A12:B13 A22:B23">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B17 B27 C30 C21:C27 G11:G17 G18:G19 G20:G27 G30:G1048576 A4:B6 A14:B16 D11:F17 A24:B26 D18:F19 D20:F27 D30:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A29:C29 U29 D28:T29 V28:AC29">
+      <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4355,7 +4596,7 @@
   <sheetPr/>
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -4381,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4407,7 +4648,7 @@
     </row>
     <row r="2" s="14" customFormat="1" spans="1:23">
       <c r="A2" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" s="3">
         <v>256</v>
@@ -4436,7 +4677,7 @@
     </row>
     <row r="3" s="14" customFormat="1" spans="1:23">
       <c r="A3" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3">
         <v>23</v>
@@ -4581,73 +4822,73 @@
     </row>
     <row r="8" s="14" customFormat="1" spans="1:23">
       <c r="A8" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" s="14" customFormat="1" spans="1:23">
@@ -4723,10 +4964,10 @@
     </row>
     <row r="10" s="14" customFormat="1" spans="1:23">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4755,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4781,7 +5022,7 @@
     </row>
     <row r="12" s="15" customFormat="1" spans="1:23">
       <c r="A12" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B12" s="3">
         <v>128</v>
@@ -4810,7 +5051,7 @@
     </row>
     <row r="13" s="15" customFormat="1" spans="1:23">
       <c r="A13" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B13" s="3">
         <v>5</v>
@@ -4955,19 +5196,19 @@
     </row>
     <row r="18" s="15" customFormat="1" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" s="15" customFormat="1" spans="1:5">
@@ -4989,10 +5230,10 @@
     </row>
     <row r="20" s="15" customFormat="1" spans="1:23">
       <c r="A20" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -5018,16 +5259,16 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B1048576 C11:C17 C20:C1048576 A12:B13 A2:B3">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B9 G9 N9:W9 A8:A9 I1:I7 I10:I17 I20:I1048576 J1:J7 J10:J17 J20:J1048576 O1:O7 O10:O17 O20:O1048576 K1:M7 V1:AE7 P1:U7 K10:M17 V10:AE17 P10:U17 K20:M1048576 V20:AE1048576 P20:U1048576 X8:AE9 C8:E9 H8:M9 A18:E19">
-      <formula1>"int,string,float,object"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 E10:F10 B17 G1:G7 G10:G17 G20:G1048576 A4:B6 E1:F7 A14:B16 D11:F17 D20:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B8 G8 N8:W8 F8:F9 N1:N7 N10:N17 N20:N1048576"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B9 G9 N9:W9 A8:A9 I1:I7 I10:I17 I20:I1048576 J1:J7 J10:J17 J20:J1048576 O1:O7 O10:O17 O20:O1048576 K1:M7 V1:AE7 P1:U7 K10:M17 V10:AE17 P10:U17 K20:M1048576 V20:AE1048576 P20:U1048576 X8:AE9 C8:E9 H8:M9 A18:E19">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B1048576 C11:C17 C20:C1048576 A12:B13 A2:B3">
+      <formula1>0</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5080,12 +5321,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" s="3">
         <v>15</v>
@@ -5093,7 +5334,7 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3">
         <v>29</v>
@@ -5133,91 +5374,91 @@
     </row>
     <row r="8" s="3" customFormat="1" spans="1:29">
       <c r="A8" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:29">
@@ -5311,22 +5552,22 @@
     </row>
     <row r="10" s="3" customFormat="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C1:C7 A2:B3 B11:C1048576">
-      <formula1>0</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 G1:G7 G10:G1048576 A4:B6 D1:F7 D10:F1048576">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:C9 U9 AC1:AC7 AC10:AC1048576 AD$1:AK$1048576 I1:K7 I10:K1048576 L1:AB7 L10:AB1048576 D8:T9 V8:AC9">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 G1:G7 G10:G1048576 A4:B6 D1:F7 D10:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C1:C7 A2:B3 B11:C1048576">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5363,12 +5604,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" s="9">
         <v>8</v>
@@ -5376,7 +5617,7 @@
     </row>
     <row r="3" s="6" customFormat="1" spans="1:2">
       <c r="A3" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B3" s="9">
         <v>4</v>
@@ -5416,16 +5657,16 @@
     </row>
     <row r="8" s="6" customFormat="1" spans="1:4">
       <c r="A8" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" spans="1:4">
@@ -5444,10 +5685,10 @@
     </row>
     <row r="10" s="6" customFormat="1" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" spans="1:2">
@@ -5455,12 +5696,12 @@
         <v>0</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" s="6" customFormat="1" spans="1:2">
       <c r="A12" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B12" s="9">
         <v>512</v>
@@ -5468,7 +5709,7 @@
     </row>
     <row r="13" s="6" customFormat="1" spans="1:2">
       <c r="A13" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B13" s="9">
         <v>3</v>
@@ -5508,13 +5749,13 @@
     </row>
     <row r="18" s="6" customFormat="1" spans="1:3">
       <c r="A18" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" s="6" customFormat="1" spans="1:3">
@@ -5530,25 +5771,25 @@
     </row>
     <row r="20" s="6" customFormat="1" spans="1:2">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B1048576 C11:C17 C20:C1048576 A12:B13 A2:B3">
-      <formula1>0</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 E10:F10 D18:F18 G18 D19:F19 G19 G1:G7 G8:G9 G10:G17 G20:G1048576 A4:B6 E1:F7 A14:B16 E8:F9 D11:F17 D20:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I18:L18 I19:L19 I1:L7 A8:D9 I8:L9 I10:L17 I20:L1048576 A18:B19">
+      <formula1>"int,float,string,object"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I18:L18 I19:L19 I1:L7 A8:D9 I8:L9 I10:L17 I20:L1048576 A18:B19">
-      <formula1>"int,float,string,object"</formula1>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B1048576 C11:C17 C20:C1048576 A12:B13 A2:B3">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5587,12 +5828,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" s="3">
         <v>128</v>
@@ -5600,7 +5841,7 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3">
         <v>8</v>
@@ -5640,28 +5881,28 @@
     </row>
     <row r="8" s="3" customFormat="1" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:8">
@@ -5692,7 +5933,7 @@
     </row>
     <row r="10" s="3" customFormat="1" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:2">
@@ -5700,12 +5941,12 @@
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B12" s="3">
         <v>128</v>
@@ -5713,7 +5954,7 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B13" s="3">
         <v>8</v>
@@ -5753,28 +5994,28 @@
     </row>
     <row r="18" s="3" customFormat="1" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:8">
@@ -5805,24 +6046,24 @@
     </row>
     <row r="20" s="3" customFormat="1" spans="1:1">
       <c r="A20" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A17"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B1048576 C11:C17 C20:C1048576 A2:B3 A12:B13">
-      <formula1>0</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 E10:F10 B17 G1:G7 G10:G17 G20:G1048576 H1:H7 H10:H17 H20:H1048576 I$1:I$1048576 A4:B6 A14:B16 E1:F7 D11:F17 D20:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A8:B8 D8:F8 A18:B18 D18:F18 K38:K1048576"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9 B9 D9:F9 A19 B19 D19:F19 K1:K37">
+      <formula1>"int,float,string,object"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C19">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A8:B8 D8:F8 A18:B18 D18:F18 K38:K1048576"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9 B9 D9:F9 A19 B19 D19:F19 K1:K37">
-      <formula1>"int,float,string,object"</formula1>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B1048576 C11:C17 C20:C1048576 A2:B3 A12:B13">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5852,36 +6093,36 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"lua,python,C#,js"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"lua,python,C#,js"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Player.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -17,12 +22,20 @@
     <sheet name="Component" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -415,7 +428,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="216">
   <si>
     <t>Id</t>
   </si>
@@ -1068,14 +1081,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1097,158 +1104,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1267,194 +1128,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1578,251 +1253,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1924,61 +1357,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1992,12 +1377,17 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2329,29 +1719,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="8.25" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
-    <col min="8" max="8" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="17.375" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="1" spans="1:37">
+    <row r="1" spans="1:37" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -2464,7 +1854,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" s="28" customFormat="1" spans="1:37">
+    <row r="2" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
         <v>37</v>
       </c>
@@ -2577,7 +1967,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" s="28" customFormat="1" spans="1:37">
+    <row r="3" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>41</v>
       </c>
@@ -2690,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="28" customFormat="1" spans="1:37">
+    <row r="4" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="31" t="s">
         <v>42</v>
       </c>
@@ -2803,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="28" customFormat="1" spans="1:37">
+    <row r="5" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="31" t="s">
         <v>43</v>
       </c>
@@ -2916,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="28" customFormat="1" spans="1:37">
+    <row r="6" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="31" t="s">
         <v>44</v>
       </c>
@@ -3029,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="18" customFormat="1" spans="1:37">
+    <row r="7" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
         <v>45</v>
       </c>
@@ -3142,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="19" customFormat="1" ht="68.25" spans="1:37">
+    <row r="8" spans="1:37" s="19" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
         <v>46</v>
       </c>
@@ -3260,27 +2650,26 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" ht="27" spans="1:30">
+    <row r="1" spans="1:30" s="16" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3372,7 +2761,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="1" spans="1:30">
+    <row r="2" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
         <v>37</v>
       </c>
@@ -3464,7 +2853,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" s="17" customFormat="1" spans="1:30">
+    <row r="3" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
         <v>41</v>
       </c>
@@ -3556,7 +2945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="17" customFormat="1" spans="1:30">
+    <row r="4" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
         <v>42</v>
       </c>
@@ -3648,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="17" customFormat="1" spans="1:30">
+    <row r="5" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
         <v>43</v>
       </c>
@@ -3740,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="17" customFormat="1" spans="1:30">
+    <row r="6" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
         <v>44</v>
       </c>
@@ -3832,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="18" customFormat="1" spans="1:30">
+    <row r="7" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
         <v>45</v>
       </c>
@@ -3924,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="19" customFormat="1" ht="68.25" spans="1:30">
+    <row r="8" spans="1:30" s="19" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
         <v>46</v>
       </c>
@@ -4023,38 +3412,37 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A2:A7 A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
     <col min="6" max="9" width="9" style="4"/>
-    <col min="10" max="10" width="12.75" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.75" style="4" customWidth="1"/>
-    <col min="12" max="13" width="15.25" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="4" customWidth="1"/>
+    <col min="12" max="13" width="15.1640625" style="4" customWidth="1"/>
     <col min="14" max="29" width="9" style="4"/>
     <col min="30" max="30" width="9" style="4" customWidth="1"/>
     <col min="31" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:2">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4062,7 +3450,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:2">
+    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>137</v>
       </c>
@@ -4070,7 +3458,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
+    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>138</v>
       </c>
@@ -4078,7 +3466,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:2">
+    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -4086,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:2">
+    <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -4094,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:2">
+    <row r="6" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -4102,7 +3490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:2">
+    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -4110,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:22">
+    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>139</v>
       </c>
@@ -4178,7 +3566,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:22">
+    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>40</v>
       </c>
@@ -4246,13 +3634,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:2">
+    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="12"/>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:2">
+    <row r="11" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -4260,7 +3648,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:2">
+    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>137</v>
       </c>
@@ -4268,7 +3656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:2">
+    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>138</v>
       </c>
@@ -4276,7 +3664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" spans="1:2">
+    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -4284,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" spans="1:2">
+    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -4292,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:2">
+    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
@@ -4300,7 +3688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:2">
+    <row r="17" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
@@ -4308,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:2">
+    <row r="18" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>139</v>
       </c>
@@ -4316,7 +3704,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" spans="1:2">
+    <row r="19" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
         <v>40</v>
       </c>
@@ -4324,13 +3712,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" spans="1:2">
+    <row r="20" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="12"/>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:2">
+    <row r="21" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -4338,7 +3726,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" spans="1:2">
+    <row r="22" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>137</v>
       </c>
@@ -4346,7 +3734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:2">
+    <row r="23" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>138</v>
       </c>
@@ -4354,7 +3742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:2">
+    <row r="24" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>41</v>
       </c>
@@ -4362,7 +3750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1" spans="1:2">
+    <row r="25" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>42</v>
       </c>
@@ -4370,7 +3758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:2">
+    <row r="26" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
@@ -4378,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" spans="1:2">
+    <row r="27" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
@@ -4386,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" spans="1:29">
+    <row r="28" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>81</v>
       </c>
@@ -4475,7 +3863,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:29">
+    <row r="29" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>39</v>
       </c>
@@ -4564,7 +3952,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" spans="1:2">
+    <row r="30" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>46</v>
       </c>
@@ -4584,40 +3972,39 @@
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
     <col min="12" max="12" width="16.5" customWidth="1"/>
-    <col min="13" max="13" width="8.375" customWidth="1"/>
-    <col min="14" max="14" width="17.75" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
     <col min="16" max="25" width="16.5" customWidth="1"/>
     <col min="26" max="26" width="19" customWidth="1"/>
-    <col min="27" max="31" width="20.25" customWidth="1"/>
+    <col min="27" max="31" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" spans="1:23">
+    <row r="1" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4646,7 +4033,7 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" s="14" customFormat="1" spans="1:23">
+    <row r="2" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>137</v>
       </c>
@@ -4675,7 +4062,7 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" s="14" customFormat="1" spans="1:23">
+    <row r="3" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>138</v>
       </c>
@@ -4704,7 +4091,7 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" s="14" customFormat="1" spans="1:23">
+    <row r="4" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -4733,7 +4120,7 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" s="14" customFormat="1" spans="1:23">
+    <row r="5" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -4762,7 +4149,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" s="14" customFormat="1" spans="1:23">
+    <row r="6" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -4791,7 +4178,7 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" s="14" customFormat="1" spans="1:23">
+    <row r="7" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -4820,7 +4207,7 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" s="14" customFormat="1" spans="1:23">
+    <row r="8" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>139</v>
       </c>
@@ -4891,7 +4278,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" s="14" customFormat="1" spans="1:23">
+    <row r="9" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -4962,7 +4349,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" s="14" customFormat="1" spans="1:23">
+    <row r="10" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
@@ -4991,7 +4378,7 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" s="13" customFormat="1" spans="1:23">
+    <row r="11" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -5020,7 +4407,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" s="15" customFormat="1" spans="1:23">
+    <row r="12" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>137</v>
       </c>
@@ -5049,7 +4436,7 @@
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
     </row>
-    <row r="13" s="15" customFormat="1" spans="1:23">
+    <row r="13" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>138</v>
       </c>
@@ -5078,7 +4465,7 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" s="15" customFormat="1" spans="1:23">
+    <row r="14" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -5107,7 +4494,7 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" s="15" customFormat="1" spans="1:23">
+    <row r="15" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -5136,7 +4523,7 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" s="15" customFormat="1" spans="1:23">
+    <row r="16" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
@@ -5165,7 +4552,7 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" s="15" customFormat="1" spans="1:23">
+    <row r="17" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
@@ -5194,7 +4581,7 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" s="15" customFormat="1" spans="1:5">
+    <row r="18" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>140</v>
       </c>
@@ -5211,7 +4598,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" s="15" customFormat="1" spans="1:5">
+    <row r="19" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -5228,7 +4615,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" s="15" customFormat="1" spans="1:23">
+    <row r="20" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
@@ -5270,53 +4657,52 @@
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="8" max="9" width="9.25" customWidth="1"/>
-    <col min="10" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="11.625" customWidth="1"/>
-    <col min="14" max="14" width="10.375" customWidth="1"/>
-    <col min="15" max="15" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="10.375" customWidth="1"/>
-    <col min="17" max="17" width="9.25" customWidth="1"/>
-    <col min="18" max="18" width="12.875" customWidth="1"/>
-    <col min="19" max="19" width="10.375" customWidth="1"/>
-    <col min="20" max="20" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="8" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" customWidth="1"/>
+    <col min="20" max="20" width="15.1640625" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="22" max="22" width="12.75" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="25" width="11.625" customWidth="1"/>
-    <col min="26" max="26" width="15.25" customWidth="1"/>
-    <col min="27" max="27" width="12.75" customWidth="1"/>
+    <col min="24" max="25" width="11.6640625" customWidth="1"/>
+    <col min="26" max="26" width="15.1640625" customWidth="1"/>
+    <col min="27" max="27" width="12.6640625" customWidth="1"/>
     <col min="28" max="29" width="14" customWidth="1"/>
-    <col min="30" max="30" width="11.625" customWidth="1"/>
-    <col min="31" max="32" width="15.25" customWidth="1"/>
+    <col min="30" max="30" width="11.6640625" customWidth="1"/>
+    <col min="31" max="32" width="15.1640625" customWidth="1"/>
     <col min="33" max="33" width="14" customWidth="1"/>
-    <col min="34" max="34" width="15.25" customWidth="1"/>
+    <col min="34" max="34" width="15.1640625" customWidth="1"/>
     <col min="35" max="35" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:2">
+    <row r="1" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5324,7 +4710,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:2">
+    <row r="2" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>137</v>
       </c>
@@ -5332,7 +4718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
+    <row r="3" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>138</v>
       </c>
@@ -5340,7 +4726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:2">
+    <row r="4" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -5348,7 +4734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:2">
+    <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -5356,7 +4742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:2">
+    <row r="6" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -5364,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:2">
+    <row r="7" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -5372,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:29">
+    <row r="8" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
@@ -5461,7 +4847,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:29">
+    <row r="9" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -5550,7 +4936,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:2">
+    <row r="10" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
@@ -5563,43 +4949,42 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 G1:G7 G10:G1048576 A4:B6 D1:F7 D10:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:C9 U9 AC1:AC7 AC10:AC1048576 AD$1:AK$1048576 I1:K7 I10:K1048576 L1:AB7 L10:AB1048576 D8:T9 V8:AC9">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:C9 U9 AC1:AC7 AC10:AC1048576 AD1:AK1048576 I1:K7 I10:K1048576 L1:AB7 L10:AB1048576 D8:T9 V8:AC9">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C1:C7 A2:B3 B11:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="11" width="22.75" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="11" width="22.6640625" customWidth="1"/>
     <col min="12" max="12" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:2">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5607,7 +4992,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:2">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>137</v>
       </c>
@@ -5615,7 +5000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" spans="1:2">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>138</v>
       </c>
@@ -5623,7 +5008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" spans="1:2">
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>41</v>
       </c>
@@ -5631,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" spans="1:2">
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>42</v>
       </c>
@@ -5639,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" spans="1:2">
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>43</v>
       </c>
@@ -5647,7 +5032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" spans="1:2">
+    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>44</v>
       </c>
@@ -5655,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" spans="1:4">
+    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>192</v>
       </c>
@@ -5669,7 +5054,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" spans="1:4">
+    <row r="9" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -5683,7 +5068,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" spans="1:2">
+    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>46</v>
       </c>
@@ -5691,7 +5076,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" s="5" customFormat="1" spans="1:2">
+    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
@@ -5699,7 +5084,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" spans="1:2">
+    <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>137</v>
       </c>
@@ -5707,7 +5092,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="1" spans="1:2">
+    <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>138</v>
       </c>
@@ -5715,7 +5100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" s="6" customFormat="1" spans="1:2">
+    <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>41</v>
       </c>
@@ -5723,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="6" customFormat="1" spans="1:2">
+    <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>42</v>
       </c>
@@ -5731,7 +5116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="6" customFormat="1" spans="1:2">
+    <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>43</v>
       </c>
@@ -5739,7 +5124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="1" spans="1:2">
+    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>44</v>
       </c>
@@ -5747,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="6" customFormat="1" spans="1:3">
+    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>195</v>
       </c>
@@ -5758,7 +5143,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" s="6" customFormat="1" spans="1:3">
+    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>38</v>
       </c>
@@ -5769,7 +5154,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" s="6" customFormat="1" spans="1:2">
+    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>46</v>
       </c>
@@ -5792,38 +5177,37 @@
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="4" customWidth="1"/>
-    <col min="2" max="3" width="7.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="7.1640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
     <col min="6" max="10" width="9" style="4"/>
-    <col min="11" max="11" width="12.75" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="4" customWidth="1"/>
     <col min="13" max="13" width="9" style="4"/>
-    <col min="14" max="14" width="11.625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="13.875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" style="4" customWidth="1"/>
     <col min="16" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:2">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5831,7 +5215,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:2">
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>137</v>
       </c>
@@ -5839,7 +5223,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>138</v>
       </c>
@@ -5847,7 +5231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:2">
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -5855,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:2">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -5863,7 +5247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:2">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -5871,7 +5255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:2">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -5879,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:8">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>202</v>
       </c>
@@ -5905,7 +5289,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:8">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -5931,12 +5315,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:1">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:2">
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -5944,7 +5328,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:2">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>137</v>
       </c>
@@ -5952,7 +5336,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:2">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>138</v>
       </c>
@@ -5960,7 +5344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" spans="1:2">
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -5968,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" spans="1:2">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -5976,7 +5360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:2">
+    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
@@ -5984,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:2">
+    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
@@ -5992,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:8">
+    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>202</v>
       </c>
@@ -6018,7 +5402,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" spans="1:8">
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -6044,7 +5428,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" spans="1:1">
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
@@ -6052,7 +5436,7 @@
   </sheetData>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A17"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 E10:F10 B17 G1:G7 G10:G17 G20:G1048576 H1:H7 H10:H17 H20:H1048576 I$1:I$1048576 A4:B6 A14:B16 E1:F7 D11:F17 D20:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 E10:F10 B17 G1:G7 G10:G17 G20:G1048576 H1:H7 H10:H17 H20:H1048576 I1:I1048576 A4:B6 A14:B16 E1:F7 D11:F17 D20:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A8:B8 D8:F8 A18:B18 D18:F18 K38:K1048576"/>
@@ -6066,29 +5450,27 @@
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.25" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6102,7 +5484,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>213</v>
       </c>
@@ -6125,7 +5507,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Player.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -45,7 +45,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0">
+    <comment ref="C8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0">
+    <comment ref="D8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="E8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0">
+    <comment ref="D28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0">
+    <comment ref="E28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F28" authorId="0">
+    <comment ref="F28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G28" authorId="0">
+    <comment ref="G28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H28" authorId="0">
+    <comment ref="H28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I28" authorId="0">
+    <comment ref="I28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J28" authorId="0">
+    <comment ref="J28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K28" authorId="0">
+    <comment ref="K28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +199,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0">
+    <comment ref="D8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="E8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0">
+    <comment ref="G8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0">
+    <comment ref="H8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -259,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J8" authorId="0">
+    <comment ref="J8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K8" authorId="0">
+    <comment ref="K8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -305,7 +305,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0">
+    <comment ref="A8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -317,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -329,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0">
+    <comment ref="C8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0">
+    <comment ref="D8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -353,7 +353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0">
+    <comment ref="A18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -365,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0">
+    <comment ref="B18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -377,7 +377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0">
+    <comment ref="C18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -399,7 +399,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0">
+    <comment ref="A8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -411,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0">
+    <comment ref="A18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -428,7 +428,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="217">
   <si>
     <t>Id</t>
   </si>
@@ -1076,12 +1076,16 @@
   </si>
   <si>
     <t>测试组件</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1358,7 +1362,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1386,6 +1390,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1720,28 +1727,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" customWidth="1"/>
+    <col min="8" max="8" width="17.6328125" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" customWidth="1"/>
+    <col min="11" max="11" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="27" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:37" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1854,7 +1861,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>37</v>
       </c>
@@ -1967,7 +1974,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>41</v>
       </c>
@@ -2080,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>42</v>
       </c>
@@ -2193,7 +2200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>43</v>
       </c>
@@ -2306,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>44</v>
       </c>
@@ -2419,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>45</v>
       </c>
@@ -2532,121 +2539,235 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="19" customFormat="1" ht="70" x14ac:dyDescent="0.15">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" s="19" customFormat="1" ht="70" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B9" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C9" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D9" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E9" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F9" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G9" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H9" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I9" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J9" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K9" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="L9" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M9" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="26" t="s">
+      <c r="N9" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="O9" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="P9" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="Q9" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="R8" s="26" t="s">
+      <c r="R9" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="S8" s="26" t="s">
+      <c r="S9" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="T8" s="26" t="s">
+      <c r="T9" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="U8" s="26" t="s">
+      <c r="U9" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="V8" s="26" t="s">
+      <c r="V9" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="W8" s="26" t="s">
+      <c r="W9" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="X8" s="26" t="s">
+      <c r="X9" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="Y8" s="26" t="s">
+      <c r="Y9" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="Z8" s="26" t="s">
+      <c r="Z9" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="AA8" s="26" t="s">
+      <c r="AA9" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AB8" s="26" t="s">
+      <c r="AB9" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="AC8" s="26" t="s">
+      <c r="AC9" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="AD8" s="26" t="s">
+      <c r="AD9" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="AE8" s="26" t="s">
+      <c r="AE9" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="AF8" s="26" t="s">
+      <c r="AF9" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26" t="s">
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="AI8" s="26" t="s">
+      <c r="AI9" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="AJ8" s="26" t="s">
+      <c r="AJ9" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="AK8" s="26" t="s">
+      <c r="AK9" s="26" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AK7 F1:F6 F8:F1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F1048576 F1:F6 B7:AK8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2664,12 +2785,12 @@
       <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="16" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" s="16" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2761,7 +2882,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>37</v>
       </c>
@@ -2853,7 +2974,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>41</v>
       </c>
@@ -2945,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>42</v>
       </c>
@@ -3037,7 +3158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>43</v>
       </c>
@@ -3129,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>44</v>
       </c>
@@ -3221,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>45</v>
       </c>
@@ -3313,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="19" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:30" s="19" customFormat="1" ht="70" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>46</v>
       </c>
@@ -3406,6 +3527,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AK7">
@@ -3426,23 +3548,23 @@
       <selection activeCell="A10" sqref="A2:A7 A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" style="4" customWidth="1"/>
     <col min="6" max="9" width="9" style="4"/>
-    <col min="10" max="10" width="12.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="4" customWidth="1"/>
-    <col min="12" max="13" width="15.1640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.6328125" style="4" customWidth="1"/>
+    <col min="12" max="13" width="15.1796875" style="4" customWidth="1"/>
     <col min="14" max="29" width="9" style="4"/>
     <col min="30" max="30" width="9" style="4" customWidth="1"/>
     <col min="31" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3450,7 +3572,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>137</v>
       </c>
@@ -3458,7 +3580,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>138</v>
       </c>
@@ -3466,7 +3588,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -3474,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -3482,7 +3604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -3490,7 +3612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -3498,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>139</v>
       </c>
@@ -3566,7 +3688,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>40</v>
       </c>
@@ -3634,13 +3756,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="12"/>
     </row>
-    <row r="11" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -3648,7 +3770,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>137</v>
       </c>
@@ -3656,7 +3778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>138</v>
       </c>
@@ -3664,7 +3786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -3672,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -3680,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
@@ -3688,7 +3810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
@@ -3696,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>139</v>
       </c>
@@ -3704,7 +3826,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>40</v>
       </c>
@@ -3712,13 +3834,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="12"/>
     </row>
-    <row r="21" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -3726,7 +3848,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>137</v>
       </c>
@@ -3734,7 +3856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>138</v>
       </c>
@@ -3742,7 +3864,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>41</v>
       </c>
@@ -3750,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>42</v>
       </c>
@@ -3758,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
@@ -3766,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
@@ -3774,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>81</v>
       </c>
@@ -3863,7 +3985,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>39</v>
       </c>
@@ -3952,7 +4074,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>46</v>
       </c>
@@ -3961,6 +4083,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B17 B27 C30 C21:C27 G11:G17 G18:G19 G20:G27 G30:G1048576 A4:B6 A14:B16 D11:F17 A24:B26 D18:F19 D20:F27 D30:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
@@ -3987,24 +4110,24 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.5" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" customWidth="1"/>
+    <col min="13" max="13" width="8.36328125" customWidth="1"/>
+    <col min="14" max="14" width="17.6328125" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="25" width="16.5" customWidth="1"/>
+    <col min="16" max="25" width="16.453125" customWidth="1"/>
     <col min="26" max="26" width="19" customWidth="1"/>
-    <col min="27" max="31" width="20.1640625" customWidth="1"/>
+    <col min="27" max="31" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4033,7 +4156,7 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>137</v>
       </c>
@@ -4062,7 +4185,7 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>138</v>
       </c>
@@ -4091,7 +4214,7 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -4120,7 +4243,7 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -4149,7 +4272,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -4178,7 +4301,7 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -4207,7 +4330,7 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>139</v>
       </c>
@@ -4278,7 +4401,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -4349,7 +4472,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
@@ -4378,7 +4501,7 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -4407,7 +4530,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>137</v>
       </c>
@@ -4436,7 +4559,7 @@
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
     </row>
-    <row r="13" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>138</v>
       </c>
@@ -4465,7 +4588,7 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -4494,7 +4617,7 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -4523,7 +4646,7 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
@@ -4552,7 +4675,7 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
@@ -4581,7 +4704,7 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>140</v>
       </c>
@@ -4598,7 +4721,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -4615,7 +4738,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
@@ -4645,6 +4768,7 @@
       <c r="W20" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 E10:F10 B17 G1:G7 G10:G17 G20:G1048576 A4:B6 E1:F7 A14:B16 D11:F17 D20:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
@@ -4671,38 +4795,38 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="8" max="9" width="9.1640625" customWidth="1"/>
-    <col min="10" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" customWidth="1"/>
-    <col min="20" max="20" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="8" max="9" width="9.1796875" customWidth="1"/>
+    <col min="10" max="12" width="12.6328125" customWidth="1"/>
+    <col min="13" max="13" width="11.6328125" customWidth="1"/>
+    <col min="14" max="14" width="10.36328125" customWidth="1"/>
+    <col min="15" max="15" width="11.6328125" customWidth="1"/>
+    <col min="16" max="16" width="10.36328125" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" customWidth="1"/>
+    <col min="18" max="18" width="12.81640625" customWidth="1"/>
+    <col min="19" max="19" width="10.36328125" customWidth="1"/>
+    <col min="20" max="20" width="15.1796875" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" customWidth="1"/>
+    <col min="22" max="22" width="12.6328125" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="25" width="11.6640625" customWidth="1"/>
-    <col min="26" max="26" width="15.1640625" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" customWidth="1"/>
+    <col min="24" max="25" width="11.6328125" customWidth="1"/>
+    <col min="26" max="26" width="15.1796875" customWidth="1"/>
+    <col min="27" max="27" width="12.6328125" customWidth="1"/>
     <col min="28" max="29" width="14" customWidth="1"/>
-    <col min="30" max="30" width="11.6640625" customWidth="1"/>
-    <col min="31" max="32" width="15.1640625" customWidth="1"/>
+    <col min="30" max="30" width="11.6328125" customWidth="1"/>
+    <col min="31" max="32" width="15.1796875" customWidth="1"/>
     <col min="33" max="33" width="14" customWidth="1"/>
-    <col min="34" max="34" width="15.1640625" customWidth="1"/>
+    <col min="34" max="34" width="15.1796875" customWidth="1"/>
     <col min="35" max="35" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4710,7 +4834,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>137</v>
       </c>
@@ -4718,7 +4842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>138</v>
       </c>
@@ -4726,7 +4850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -4734,7 +4858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -4742,7 +4866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -4750,7 +4874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -4758,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
@@ -4847,7 +4971,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -4936,7 +5060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
@@ -4945,6 +5069,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 G1:G7 G10:G1048576 A4:B6 D1:F7 D10:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
@@ -4971,20 +5096,20 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="11" width="22.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" customWidth="1"/>
+    <col min="10" max="11" width="22.6328125" customWidth="1"/>
+    <col min="12" max="12" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4992,7 +5117,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>137</v>
       </c>
@@ -5000,7 +5125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>138</v>
       </c>
@@ -5008,7 +5133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>41</v>
       </c>
@@ -5016,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>42</v>
       </c>
@@ -5024,7 +5149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>43</v>
       </c>
@@ -5032,7 +5157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>44</v>
       </c>
@@ -5040,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>192</v>
       </c>
@@ -5054,7 +5179,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -5068,7 +5193,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>46</v>
       </c>
@@ -5076,7 +5201,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
@@ -5084,7 +5209,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>137</v>
       </c>
@@ -5092,7 +5217,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>138</v>
       </c>
@@ -5100,7 +5225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>41</v>
       </c>
@@ -5108,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>42</v>
       </c>
@@ -5116,7 +5241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>43</v>
       </c>
@@ -5124,7 +5249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>44</v>
       </c>
@@ -5132,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>195</v>
       </c>
@@ -5143,7 +5268,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>38</v>
       </c>
@@ -5154,7 +5279,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>46</v>
       </c>
@@ -5163,6 +5288,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 E10:F10 D18:F18 G18 D19:F19 G19 G1:G7 G8:G9 G10:G17 G20:G1048576 A4:B6 E1:F7 A14:B16 E8:F9 D11:F17 D20:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
@@ -5192,22 +5318,22 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="7.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" style="4" customWidth="1"/>
+    <col min="2" max="3" width="7.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" style="4" customWidth="1"/>
     <col min="6" max="10" width="9" style="4"/>
-    <col min="11" max="11" width="12.6640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.81640625" style="4" customWidth="1"/>
     <col min="13" max="13" width="9" style="4"/>
-    <col min="14" max="14" width="11.6640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="13.83203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" style="4" customWidth="1"/>
     <col min="16" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5215,7 +5341,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>137</v>
       </c>
@@ -5223,7 +5349,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>138</v>
       </c>
@@ -5231,7 +5357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -5239,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -5247,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -5255,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -5263,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>202</v>
       </c>
@@ -5289,7 +5415,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -5315,12 +5441,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -5328,7 +5454,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>137</v>
       </c>
@@ -5336,7 +5462,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>138</v>
       </c>
@@ -5344,7 +5470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -5352,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -5360,7 +5486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
@@ -5368,7 +5494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
@@ -5376,7 +5502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>202</v>
       </c>
@@ -5402,7 +5528,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -5428,12 +5554,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A17"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 E10:F10 B17 G1:G7 G10:G17 G20:G1048576 H1:H7 H10:H17 H20:H1048576 I1:I1048576 A4:B6 A14:B16 E1:F7 D11:F17 D20:F1048576">
@@ -5463,14 +5590,14 @@
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5484,7 +5611,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>213</v>
       </c>
@@ -5499,6 +5626,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"lua,python,C#,js"</formula1>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Player.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -28,14 +23,6 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -45,7 +32,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="B8" authorId="0" shapeId="0">
+    <comment ref="B8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0">
+    <comment ref="E8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0" shapeId="0">
+    <comment ref="D28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0" shapeId="0">
+    <comment ref="E28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F28" authorId="0" shapeId="0">
+    <comment ref="F28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G28" authorId="0" shapeId="0">
+    <comment ref="G28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H28" authorId="0" shapeId="0">
+    <comment ref="H28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I28" authorId="0" shapeId="0">
+    <comment ref="I28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J28" authorId="0" shapeId="0">
+    <comment ref="J28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K28" authorId="0" shapeId="0">
+    <comment ref="K28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +186,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0">
+    <comment ref="E8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0">
+    <comment ref="F8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0">
+    <comment ref="G8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0" shapeId="0">
+    <comment ref="H8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -259,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J8" authorId="0" shapeId="0">
+    <comment ref="J8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K8" authorId="0" shapeId="0">
+    <comment ref="K8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -305,7 +292,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0">
+    <comment ref="A8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -317,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0">
+    <comment ref="B8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -329,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -353,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0">
+    <comment ref="A18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -365,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0">
+    <comment ref="B18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -377,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0">
+    <comment ref="C18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -399,7 +386,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0">
+    <comment ref="A8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -411,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0">
+    <comment ref="A18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -428,7 +415,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217">
   <si>
     <t>Id</t>
   </si>
@@ -568,6 +555,9 @@
     <t>Ref</t>
   </si>
   <si>
+    <t>Upload</t>
+  </si>
+  <si>
     <t>Desc</t>
   </si>
   <si>
@@ -1076,17 +1066,19 @@
   </si>
   <si>
     <t>测试组件</t>
-  </si>
-  <si>
-    <t>Upload</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1108,12 +1100,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1132,8 +1270,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1257,9 +1581,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1361,13 +1927,61 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1381,20 +1995,12 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1726,29 +2332,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" customWidth="1"/>
-    <col min="7" max="7" width="9.36328125" customWidth="1"/>
-    <col min="8" max="8" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="23.8166666666667" customWidth="1"/>
+    <col min="2" max="2" width="8.18333333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.45" customWidth="1"/>
+    <col min="4" max="4" width="11.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="8.18333333333333" customWidth="1"/>
+    <col min="7" max="7" width="9.36666666666667" customWidth="1"/>
+    <col min="8" max="8" width="17.6333333333333" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="12.6328125" customWidth="1"/>
-    <col min="11" max="11" width="17.36328125" customWidth="1"/>
+    <col min="10" max="10" width="12.6333333333333" customWidth="1"/>
+    <col min="11" max="11" width="17.3666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="27" customFormat="1" spans="1:37">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1861,7 +2469,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" s="28" customFormat="1" spans="1:37">
       <c r="A2" s="31" t="s">
         <v>37</v>
       </c>
@@ -1974,7 +2582,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="28" customFormat="1" spans="1:37">
       <c r="A3" s="31" t="s">
         <v>41</v>
       </c>
@@ -2087,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" s="28" customFormat="1" spans="1:37">
       <c r="A4" s="31" t="s">
         <v>42</v>
       </c>
@@ -2200,7 +2808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" s="28" customFormat="1" spans="1:37">
       <c r="A5" s="31" t="s">
         <v>43</v>
       </c>
@@ -2313,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" s="28" customFormat="1" spans="1:37">
       <c r="A6" s="31" t="s">
         <v>44</v>
       </c>
@@ -2426,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" s="18" customFormat="1" spans="1:37">
       <c r="A7" s="24" t="s">
         <v>45</v>
       </c>
@@ -2539,9 +3147,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" s="18" customFormat="1" spans="1:37">
       <c r="A8" s="24" t="s">
-        <v>216</v>
+        <v>46</v>
       </c>
       <c r="B8" s="18" t="b">
         <v>0</v>
@@ -2652,237 +3260,237 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="19" customFormat="1" ht="70" x14ac:dyDescent="0.25">
+    <row r="9" s="19" customFormat="1" ht="68.25" spans="1:37">
       <c r="A9" s="25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N9" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="O9" s="26" t="s">
-        <v>58</v>
-      </c>
       <c r="P9" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R9" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S9" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U9" s="26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V9" s="26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W9" s="26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X9" s="26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y9" s="26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z9" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB9" s="26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC9" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD9" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE9" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF9" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG9" s="26"/>
       <c r="AH9" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI9" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ9" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK9" s="26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F1048576 F1:F6 B7:AK8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F6 F9:F1048576 B7:AK8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.1833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="16" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="1" s="16" customFormat="1" ht="27" spans="1:30">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z1" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA1" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC1" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD1" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" s="17" customFormat="1" spans="1:30">
       <c r="A2" s="22" t="s">
         <v>37</v>
       </c>
@@ -2974,7 +3582,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="17" customFormat="1" spans="1:30">
       <c r="A3" s="22" t="s">
         <v>41</v>
       </c>
@@ -3066,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" s="17" customFormat="1" spans="1:30">
       <c r="A4" s="22" t="s">
         <v>42</v>
       </c>
@@ -3158,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" s="17" customFormat="1" spans="1:30">
       <c r="A5" s="22" t="s">
         <v>43</v>
       </c>
@@ -3250,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" s="17" customFormat="1" spans="1:30">
       <c r="A6" s="22" t="s">
         <v>44</v>
       </c>
@@ -3342,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" s="18" customFormat="1" spans="1:30">
       <c r="A7" s="24" t="s">
         <v>45</v>
       </c>
@@ -3434,161 +4042,253 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="19" customFormat="1" ht="70" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+    <row r="8" s="18" customFormat="1" spans="1:30">
+      <c r="A8" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="19" customFormat="1" ht="68.25" spans="1:30">
+      <c r="A9" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="C9" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="26" t="s">
+      <c r="D9" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="26" t="s">
+      <c r="H9" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="J9" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="K9" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="L9" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="N8" s="26" t="s">
+      <c r="M9" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="N9" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="O9" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="P9" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="R8" s="26" t="s">
+      <c r="Q9" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="S8" s="26" t="s">
+      <c r="R9" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="T8" s="26" t="s">
+      <c r="S9" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="U8" s="26" t="s">
+      <c r="T9" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="V8" s="26" t="s">
+      <c r="U9" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="W8" s="26" t="s">
+      <c r="V9" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="X8" s="26" t="s">
+      <c r="W9" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="Y8" s="26" t="s">
+      <c r="X9" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="Z8" s="26" t="s">
+      <c r="Y9" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="AA8" s="26" t="s">
+      <c r="Z9" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="AB8" s="26" t="s">
+      <c r="AA9" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="AC8" s="26" t="s">
+      <c r="AB9" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="AD8" s="26" t="s">
+      <c r="AC9" s="26" t="s">
         <v>135</v>
       </c>
+      <c r="AD9" s="26" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AK7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AD7 B8:AD8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A8"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A2:A7 A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.1796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.1833333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.8166666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.18333333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.45" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6333333333333" style="4" customWidth="1"/>
     <col min="6" max="9" width="9" style="4"/>
-    <col min="10" max="10" width="12.6328125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.6328125" style="4" customWidth="1"/>
-    <col min="12" max="13" width="15.1796875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.6333333333333" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.6333333333333" style="4" customWidth="1"/>
+    <col min="12" max="13" width="15.1833333333333" style="4" customWidth="1"/>
     <col min="14" max="29" width="9" style="4"/>
     <col min="30" max="30" width="9" style="4" customWidth="1"/>
     <col min="31" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="2" customFormat="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B2" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B3" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" s="3" customFormat="1" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -3596,7 +4296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" s="3" customFormat="1" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -3604,7 +4304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" s="3" customFormat="1" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -3612,7 +4312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" s="3" customFormat="1" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -3620,75 +4320,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" s="3" customFormat="1" spans="1:22">
       <c r="A8" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:22">
       <c r="A9" s="12" t="s">
         <v>40</v>
       </c>
@@ -3756,37 +4456,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" s="3" customFormat="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="12"/>
     </row>
-    <row r="11" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" s="2" customFormat="1" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B12" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" s="3" customFormat="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" s="3" customFormat="1" spans="1:2">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -3794,7 +4494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" s="3" customFormat="1" spans="1:2">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -3802,7 +4502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" s="3" customFormat="1" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
@@ -3810,7 +4510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" s="3" customFormat="1" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
@@ -3818,15 +4518,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" s="3" customFormat="1" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:2">
       <c r="A19" s="12" t="s">
         <v>40</v>
       </c>
@@ -3834,37 +4534,37 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" s="3" customFormat="1" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="12"/>
     </row>
-    <row r="21" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" s="2" customFormat="1" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B22" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" s="3" customFormat="1" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B23" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" s="3" customFormat="1" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>41</v>
       </c>
@@ -3872,7 +4572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" s="3" customFormat="1" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>42</v>
       </c>
@@ -3880,7 +4580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" s="3" customFormat="1" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
@@ -3888,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" s="3" customFormat="1" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
@@ -3896,96 +4596,96 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" s="3" customFormat="1" spans="1:29">
       <c r="A28" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AB28" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC28" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="1:29">
       <c r="A29" s="3" t="s">
         <v>39</v>
       </c>
@@ -4074,65 +4774,65 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" s="3" customFormat="1" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A29:C29 U29 D28:T29 V28:AC29">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B17 B27 C30 C21:C27 G11:G17 G18:G19 G20:G27 G30:G1048576 A4:B6 A14:B16 D11:F17 A24:B26 D18:F19 D20:F27 D30:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20 B31:B1048576 C11:C17 C18:C19 C31:C1048576 A2:B3 A12:B13 A22:B23">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A29:C29 U29 D28:T29 V28:AC29">
-      <formula1>"int,string,float,object"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="11" max="11" width="12.6328125" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" customWidth="1"/>
-    <col min="13" max="13" width="8.36328125" customWidth="1"/>
-    <col min="14" max="14" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="15.3666666666667" customWidth="1"/>
+    <col min="3" max="3" width="10.3666666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.1833333333333" customWidth="1"/>
+    <col min="5" max="5" width="11.6333333333333" customWidth="1"/>
+    <col min="11" max="11" width="12.6333333333333" customWidth="1"/>
+    <col min="12" max="12" width="16.45" customWidth="1"/>
+    <col min="13" max="13" width="8.36666666666667" customWidth="1"/>
+    <col min="14" max="14" width="17.6333333333333" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="25" width="16.453125" customWidth="1"/>
+    <col min="16" max="25" width="16.45" customWidth="1"/>
     <col min="26" max="26" width="19" customWidth="1"/>
-    <col min="27" max="31" width="20.1796875" customWidth="1"/>
+    <col min="27" max="31" width="20.1833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="13" customFormat="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4156,9 +4856,9 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" s="14" customFormat="1" spans="1:23">
       <c r="A2" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B2" s="3">
         <v>256</v>
@@ -4185,9 +4885,9 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="14" customFormat="1" spans="1:23">
       <c r="A3" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B3" s="3">
         <v>23</v>
@@ -4214,7 +4914,7 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" s="14" customFormat="1" spans="1:23">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -4243,7 +4943,7 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" s="14" customFormat="1" spans="1:23">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -4272,7 +4972,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" s="14" customFormat="1" spans="1:23">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -4301,7 +5001,7 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" s="14" customFormat="1" spans="1:23">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -4330,78 +5030,78 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" s="14" customFormat="1" spans="1:23">
       <c r="A8" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" s="14" customFormat="1" spans="1:23">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -4472,12 +5172,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" s="14" customFormat="1" spans="1:23">
       <c r="A10" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4501,12 +5201,12 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" s="13" customFormat="1" spans="1:23">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4530,9 +5230,9 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" s="15" customFormat="1" spans="1:23">
       <c r="A12" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B12" s="3">
         <v>128</v>
@@ -4559,9 +5259,9 @@
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
     </row>
-    <row r="13" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" s="15" customFormat="1" spans="1:23">
       <c r="A13" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13" s="3">
         <v>5</v>
@@ -4588,7 +5288,7 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" s="15" customFormat="1" spans="1:23">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -4617,7 +5317,7 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" s="15" customFormat="1" spans="1:23">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -4646,7 +5346,7 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" s="15" customFormat="1" spans="1:23">
       <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
@@ -4675,7 +5375,7 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" s="15" customFormat="1" spans="1:23">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
@@ -4704,24 +5404,24 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" s="15" customFormat="1" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" s="15" customFormat="1" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -4738,12 +5438,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" s="15" customFormat="1" spans="1:23">
       <c r="A20" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -4768,89 +5468,89 @@
       <c r="W20" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B9 G9 N9:W9 A8:A9 I1:I7 I10:I17 I20:I1048576 J1:J7 J10:J17 J20:J1048576 O1:O7 O10:O17 O20:O1048576 K1:M7 V1:AE7 P1:U7 K10:M17 V10:AE17 P10:U17 K20:M1048576 V20:AE1048576 P20:U1048576 X8:AE9 C8:E9 H8:M9 A18:E19">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 E10:F10 B17 G1:G7 G10:G17 G20:G1048576 A4:B6 E1:F7 A14:B16 D11:F17 D20:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B8 G8 N8:W8 F8:F9 N1:N7 N10:N17 N20:N1048576"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B9 G9 N9:W9 A8:A9 I1:I7 I10:I17 I20:I1048576 J1:J7 J10:J17 J20:J1048576 O1:O7 O10:O17 O20:O1048576 K1:M7 V1:AE7 P1:U7 K10:M17 V10:AE17 P10:U17 K20:M1048576 V20:AE1048576 P20:U1048576 X8:AE9 C8:E9 H8:M9 A18:E19">
-      <formula1>"int,string,float,object"</formula1>
-    </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B1048576 C11:C17 C20:C1048576 A12:B13 A2:B3">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" customWidth="1"/>
+    <col min="1" max="1" width="19.3666666666667" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="7.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="8" max="9" width="9.1796875" customWidth="1"/>
-    <col min="10" max="12" width="12.6328125" customWidth="1"/>
-    <col min="13" max="13" width="11.6328125" customWidth="1"/>
-    <col min="14" max="14" width="10.36328125" customWidth="1"/>
-    <col min="15" max="15" width="11.6328125" customWidth="1"/>
-    <col min="16" max="16" width="10.36328125" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" customWidth="1"/>
-    <col min="18" max="18" width="12.81640625" customWidth="1"/>
-    <col min="19" max="19" width="10.36328125" customWidth="1"/>
-    <col min="20" max="20" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="7.18333333333333" customWidth="1"/>
+    <col min="4" max="4" width="10.45" customWidth="1"/>
+    <col min="5" max="5" width="11.6333333333333" customWidth="1"/>
+    <col min="8" max="9" width="9.18333333333333" customWidth="1"/>
+    <col min="10" max="12" width="12.6333333333333" customWidth="1"/>
+    <col min="13" max="13" width="11.6333333333333" customWidth="1"/>
+    <col min="14" max="14" width="10.3666666666667" customWidth="1"/>
+    <col min="15" max="15" width="11.6333333333333" customWidth="1"/>
+    <col min="16" max="16" width="10.3666666666667" customWidth="1"/>
+    <col min="17" max="17" width="9.18333333333333" customWidth="1"/>
+    <col min="18" max="18" width="12.8166666666667" customWidth="1"/>
+    <col min="19" max="19" width="10.3666666666667" customWidth="1"/>
+    <col min="20" max="20" width="15.1833333333333" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="22" max="22" width="12.6328125" customWidth="1"/>
+    <col min="22" max="22" width="12.6333333333333" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="25" width="11.6328125" customWidth="1"/>
-    <col min="26" max="26" width="15.1796875" customWidth="1"/>
-    <col min="27" max="27" width="12.6328125" customWidth="1"/>
+    <col min="24" max="25" width="11.6333333333333" customWidth="1"/>
+    <col min="26" max="26" width="15.1833333333333" customWidth="1"/>
+    <col min="27" max="27" width="12.6333333333333" customWidth="1"/>
     <col min="28" max="29" width="14" customWidth="1"/>
-    <col min="30" max="30" width="11.6328125" customWidth="1"/>
-    <col min="31" max="32" width="15.1796875" customWidth="1"/>
+    <col min="30" max="30" width="11.6333333333333" customWidth="1"/>
+    <col min="31" max="32" width="15.1833333333333" customWidth="1"/>
     <col min="33" max="33" width="14" customWidth="1"/>
-    <col min="34" max="34" width="15.1796875" customWidth="1"/>
+    <col min="34" max="34" width="15.1833333333333" customWidth="1"/>
     <col min="35" max="35" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="2" customFormat="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B2" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B3" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" s="3" customFormat="1" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -4858,7 +5558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" s="3" customFormat="1" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -4866,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" s="3" customFormat="1" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -4874,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" s="3" customFormat="1" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -4882,96 +5582,96 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" s="3" customFormat="1" spans="1:29">
       <c r="A8" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:29">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -5060,80 +5760,80 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" s="3" customFormat="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:C9 U9 AC1:AC7 AC10:AC1048576 AD$1:AK$1048576 I1:K7 I10:K1048576 L1:AB7 L10:AB1048576 D8:T9 V8:AC9">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 G1:G7 G10:G1048576 A4:B6 D1:F7 D10:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:C9 U9 AC1:AC7 AC10:AC1048576 AD1:AK1048576 I1:K7 I10:K1048576 L1:AB7 L10:AB1048576 D8:T9 V8:AC9">
-      <formula1>"int,string,float,object"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C1:C7 A2:B3 B11:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="20.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.1833333333333" customWidth="1"/>
+    <col min="2" max="2" width="17.1833333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.3666666666667" customWidth="1"/>
+    <col min="4" max="4" width="10.45" customWidth="1"/>
+    <col min="5" max="5" width="11.6333333333333" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" customWidth="1"/>
-    <col min="10" max="11" width="22.6328125" customWidth="1"/>
-    <col min="12" max="12" width="10.453125" customWidth="1"/>
+    <col min="9" max="9" width="12.6333333333333" customWidth="1"/>
+    <col min="10" max="11" width="22.6333333333333" customWidth="1"/>
+    <col min="12" max="12" width="10.45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="5" customFormat="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" s="6" customFormat="1" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B2" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="6" customFormat="1" spans="1:2">
       <c r="A3" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B3" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" s="6" customFormat="1" spans="1:2">
       <c r="A4" s="9" t="s">
         <v>41</v>
       </c>
@@ -5141,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" s="6" customFormat="1" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>42</v>
       </c>
@@ -5149,7 +5849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" s="6" customFormat="1" spans="1:2">
       <c r="A6" s="9" t="s">
         <v>43</v>
       </c>
@@ -5157,7 +5857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" s="6" customFormat="1" spans="1:2">
       <c r="A7" s="9" t="s">
         <v>44</v>
       </c>
@@ -5165,21 +5865,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" s="6" customFormat="1" spans="1:4">
       <c r="A8" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" s="6" customFormat="1" spans="1:4">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -5193,39 +5893,39 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" s="6" customFormat="1" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" spans="1:2">
       <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" s="6" customFormat="1" spans="1:2">
       <c r="A12" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B12" s="9">
         <v>512</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" s="6" customFormat="1" spans="1:2">
       <c r="A13" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" s="6" customFormat="1" spans="1:2">
       <c r="A14" s="9" t="s">
         <v>41</v>
       </c>
@@ -5233,7 +5933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" s="6" customFormat="1" spans="1:2">
       <c r="A15" s="9" t="s">
         <v>42</v>
       </c>
@@ -5241,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" s="6" customFormat="1" spans="1:2">
       <c r="A16" s="9" t="s">
         <v>43</v>
       </c>
@@ -5249,7 +5949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" s="6" customFormat="1" spans="1:2">
       <c r="A17" s="9" t="s">
         <v>44</v>
       </c>
@@ -5257,18 +5957,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" s="6" customFormat="1" spans="1:3">
       <c r="A18" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" s="6" customFormat="1" spans="1:3">
       <c r="A19" s="6" t="s">
         <v>38</v>
       </c>
@@ -5279,85 +5979,85 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" s="6" customFormat="1" spans="1:2">
       <c r="A20" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 E10:F10 D18:F18 G18 D19:F19 G19 G1:G7 G8:G9 G10:G17 G20:G1048576 A4:B6 E1:F7 A14:B16 E8:F9 D11:F17 D20:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B1048576 C11:C17 C20:C1048576 A12:B13 A2:B3">
+      <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I18:L18 I19:L19 I1:L7 A8:D9 I8:L9 I10:L17 I20:L1048576 A18:B19">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B1048576 C11:C17 C20:C1048576 A12:B13 A2:B3">
-      <formula1>0</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="7.1796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.1833333333333" style="4" customWidth="1"/>
+    <col min="2" max="3" width="7.18333333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.45" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6333333333333" style="4" customWidth="1"/>
     <col min="6" max="10" width="9" style="4"/>
-    <col min="11" max="11" width="12.6328125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.6333333333333" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.8166666666667" style="4" customWidth="1"/>
     <col min="13" max="13" width="9" style="4"/>
-    <col min="14" max="14" width="11.6328125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="13.81640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.6333333333333" style="4" customWidth="1"/>
+    <col min="15" max="15" width="13.8166666666667" style="4" customWidth="1"/>
     <col min="16" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="2" customFormat="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B2" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B3" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" s="3" customFormat="1" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -5365,7 +6065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" s="3" customFormat="1" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -5373,7 +6073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" s="3" customFormat="1" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -5381,7 +6081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" s="3" customFormat="1" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -5389,33 +6089,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" s="3" customFormat="1" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:8">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -5441,36 +6141,36 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" s="3" customFormat="1" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B12" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" s="3" customFormat="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" s="3" customFormat="1" spans="1:2">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -5478,7 +6178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" s="3" customFormat="1" spans="1:2">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -5486,7 +6186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" s="3" customFormat="1" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
@@ -5494,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" s="3" customFormat="1" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
@@ -5502,33 +6202,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" s="3" customFormat="1" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:8">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -5554,79 +6254,79 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" s="3" customFormat="1" spans="1:1">
       <c r="A20" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A17"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 E10:F10 B17 G1:G7 G10:G17 G20:G1048576 H1:H7 H10:H17 H20:H1048576 I1:I1048576 A4:B6 A14:B16 E1:F7 D11:F17 D20:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 E10:F10 B17 G1:G7 G10:G17 G20:G1048576 H1:H7 H10:H17 H20:H1048576 I$1:I$1048576 A4:B6 A14:B16 E1:F7 D11:F17 D20:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A17"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A8:B8 D8:F8 A18:B18 D18:F18 K38:K1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B1048576 C11:C17 C20:C1048576 A2:B3 A12:B13">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9 B9 D9:F9 A19 B19 D19:F19 K1:K37">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C19">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B1048576 C11:C17 C20:C1048576 A2:B3 A12:B13">
-      <formula1>0</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.18333333333333" customWidth="1"/>
+    <col min="2" max="2" width="12.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"lua,python,C#,js"</formula1>
@@ -5635,7 +6335,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Player.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28700" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -32,7 +37,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="B8" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0">
+    <comment ref="D9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0">
+    <comment ref="D31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0">
+    <comment ref="E31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F28" authorId="0">
+    <comment ref="F31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G28" authorId="0">
+    <comment ref="G31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H28" authorId="0">
+    <comment ref="H31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I28" authorId="0">
+    <comment ref="I31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J28" authorId="0">
+    <comment ref="J31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K28" authorId="0">
+    <comment ref="K31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -186,7 +191,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0">
+    <comment ref="D9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0">
+    <comment ref="F9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0">
+    <comment ref="G9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0">
+    <comment ref="H9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -246,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0">
+    <comment ref="I9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -258,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J8" authorId="0">
+    <comment ref="J9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K8" authorId="0">
+    <comment ref="K9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +297,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -304,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -316,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0">
+    <comment ref="D9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0">
+    <comment ref="A20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -352,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0">
+    <comment ref="B20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -364,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0">
+    <comment ref="C20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -386,7 +391,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -398,7 +403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0">
+    <comment ref="A20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -415,7 +420,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="223">
   <si>
     <t>Id</t>
   </si>
@@ -1066,19 +1071,76 @@
   </si>
   <si>
     <t>测试组件</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pload</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pload</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pload</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1100,158 +1162,34 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1270,194 +1208,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1581,255 +1333,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1926,62 +1436,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -2001,6 +1469,14 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2332,31 +1808,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="$A8:$XFD8"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.8166666666667" customWidth="1"/>
-    <col min="2" max="2" width="8.18333333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.45" customWidth="1"/>
-    <col min="4" max="4" width="11.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="8.18333333333333" customWidth="1"/>
-    <col min="7" max="7" width="9.36666666666667" customWidth="1"/>
-    <col min="8" max="8" width="17.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" customWidth="1"/>
+    <col min="8" max="8" width="17.6328125" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="12.6333333333333" customWidth="1"/>
-    <col min="11" max="11" width="17.3666666666667" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" customWidth="1"/>
+    <col min="11" max="11" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="1" spans="1:37">
+    <row r="1" spans="1:37" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -2469,7 +1943,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" s="28" customFormat="1" spans="1:37">
+    <row r="2" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>37</v>
       </c>
@@ -2582,7 +2056,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" s="28" customFormat="1" spans="1:37">
+    <row r="3" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>41</v>
       </c>
@@ -2695,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="28" customFormat="1" spans="1:37">
+    <row r="4" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>42</v>
       </c>
@@ -2808,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="28" customFormat="1" spans="1:37">
+    <row r="5" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>43</v>
       </c>
@@ -2921,7 +2395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="28" customFormat="1" spans="1:37">
+    <row r="6" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>44</v>
       </c>
@@ -3034,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="18" customFormat="1" spans="1:37">
+    <row r="7" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>45</v>
       </c>
@@ -3147,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="18" customFormat="1" spans="1:37">
+    <row r="8" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>46</v>
       </c>
@@ -3260,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="19" customFormat="1" ht="68.25" spans="1:37">
+    <row r="9" spans="1:37" s="19" customFormat="1" ht="70" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>47</v>
       </c>
@@ -3372,33 +2846,33 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F6 F9:F1048576 B7:AK8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" ht="27" spans="1:30">
+    <row r="1" spans="1:30" s="16" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3490,7 +2964,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="1" spans="1:30">
+    <row r="2" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>37</v>
       </c>
@@ -3582,7 +3056,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" s="17" customFormat="1" spans="1:30">
+    <row r="3" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>41</v>
       </c>
@@ -3674,7 +3148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="17" customFormat="1" spans="1:30">
+    <row r="4" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>42</v>
       </c>
@@ -3766,7 +3240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="17" customFormat="1" spans="1:30">
+    <row r="5" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>43</v>
       </c>
@@ -3858,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="17" customFormat="1" spans="1:30">
+    <row r="6" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>44</v>
       </c>
@@ -3950,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="18" customFormat="1" spans="1:30">
+    <row r="7" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>45</v>
       </c>
@@ -4042,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="18" customFormat="1" spans="1:30">
+    <row r="8" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>46</v>
       </c>
@@ -4134,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="19" customFormat="1" ht="68.25" spans="1:30">
+    <row r="9" spans="1:30" s="19" customFormat="1" ht="70" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>47</v>
       </c>
@@ -4227,44 +3701,44 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AD7 B8:AD8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A8"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:AC30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A2:A7 A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1833333333333" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.8166666666667" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.18333333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.45" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6333333333333" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" style="4" customWidth="1"/>
     <col min="6" max="9" width="9" style="4"/>
-    <col min="10" max="10" width="12.6333333333333" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.6333333333333" style="4" customWidth="1"/>
-    <col min="12" max="13" width="15.1833333333333" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.6328125" style="4" customWidth="1"/>
+    <col min="12" max="13" width="15.1796875" style="4" customWidth="1"/>
     <col min="14" max="29" width="9" style="4"/>
     <col min="30" max="30" width="9" style="4" customWidth="1"/>
     <col min="31" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:2">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4272,7 +3746,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:2">
+    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>138</v>
       </c>
@@ -4280,7 +3754,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
+    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>139</v>
       </c>
@@ -4288,7 +3762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:2">
+    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -4296,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:2">
+    <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -4304,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:2">
+    <row r="6" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -4312,7 +3786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:2">
+    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -4320,514 +3794,538 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:22">
+    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:22">
-      <c r="A9" s="12" t="s">
+    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:2">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="12"/>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:2">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B13" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:2">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B14" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" spans="1:2">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="1:2">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:2">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" spans="1:2">
-      <c r="A19" s="12" t="s">
+    <row r="21" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="12"/>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="11" t="s">
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" spans="1:2">
-      <c r="A22" s="3" t="s">
+    <row r="24" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B24" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:2">
-      <c r="A23" s="3" t="s">
+    <row r="25" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B25" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:2">
-      <c r="A24" s="3" t="s">
+    <row r="26" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" s="3" customFormat="1" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="B26" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" s="3" customFormat="1" spans="1:2">
-      <c r="A26" s="3" t="s">
+      <c r="B27" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" s="3" customFormat="1" spans="1:2">
-      <c r="A27" s="3" t="s">
+      <c r="B28" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" s="3" customFormat="1" spans="1:29">
-      <c r="A28" s="3" t="s">
+      <c r="B29" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="O31" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="P31" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="R31" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="S31" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="T31" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="U31" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="V28" s="3" t="s">
+      <c r="V31" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="W28" s="3" t="s">
+      <c r="W31" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="X28" s="3" t="s">
+      <c r="X31" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Y28" s="3" t="s">
+      <c r="Y31" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="Z28" s="3" t="s">
+      <c r="Z31" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AA28" s="3" t="s">
+      <c r="AA31" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AB28" s="3" t="s">
+      <c r="AB31" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AC28" s="3" t="s">
+      <c r="AC31" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:29">
-      <c r="A29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC29" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" s="3" customFormat="1" spans="1:2">
-      <c r="A30" s="3" t="s">
+    <row r="32" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B33" s="12" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A29:C29 U29 D28:T29 V28:AC29">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A32:C32 U32 D31:T32 V31:AC32">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B17 B27 C30 C21:C27 G11:G17 G18:G19 G20:G27 G30:G1048576 A4:B6 A14:B16 D11:F17 A24:B26 D18:F19 D20:F27 D30:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29:B30 C23:C29 C33 B18:B19 B7:B8 D33:G1048576 A4:B6 A15:B17 A26:B28 D12:G18 D20:G29">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20 B31:B1048576 C11:C17 C18:C19 C31:C1048576 A2:B3 A12:B13 A22:B23">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A24:B25 B34:C1048576 A2:B3 A13:B14 C12:C18 C20:C22">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:W20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="15.3666666666667" customWidth="1"/>
-    <col min="3" max="3" width="10.3666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.1833333333333" customWidth="1"/>
-    <col min="5" max="5" width="11.6333333333333" customWidth="1"/>
-    <col min="11" max="11" width="12.6333333333333" customWidth="1"/>
-    <col min="12" max="12" width="16.45" customWidth="1"/>
-    <col min="13" max="13" width="8.36666666666667" customWidth="1"/>
-    <col min="14" max="14" width="17.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" customWidth="1"/>
+    <col min="13" max="13" width="8.36328125" customWidth="1"/>
+    <col min="14" max="14" width="17.6328125" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="25" width="16.45" customWidth="1"/>
+    <col min="16" max="25" width="16.453125" customWidth="1"/>
     <col min="26" max="26" width="19" customWidth="1"/>
-    <col min="27" max="31" width="20.1833333333333" customWidth="1"/>
+    <col min="27" max="31" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" spans="1:23">
+    <row r="1" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4856,7 +4354,7 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" s="14" customFormat="1" spans="1:23">
+    <row r="2" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>138</v>
       </c>
@@ -4885,7 +4383,7 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" s="14" customFormat="1" spans="1:23">
+    <row r="3" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>139</v>
       </c>
@@ -4914,7 +4412,7 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" s="14" customFormat="1" spans="1:23">
+    <row r="4" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -4943,7 +4441,7 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" s="14" customFormat="1" spans="1:23">
+    <row r="5" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -4972,7 +4470,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" s="14" customFormat="1" spans="1:23">
+    <row r="6" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -5001,7 +4499,7 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" s="14" customFormat="1" spans="1:23">
+    <row r="7" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -5030,241 +4528,241 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" s="14" customFormat="1" spans="1:23">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="9" s="14" customFormat="1" spans="1:23">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="G10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" s="14" customFormat="1" spans="1:23">
-      <c r="A10" s="3" t="s">
+      <c r="S10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B11" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-    </row>
-    <row r="11" s="13" customFormat="1" spans="1:23">
-      <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-    </row>
-    <row r="12" s="15" customFormat="1" spans="1:23">
-      <c r="A12" s="3" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B13" s="3">
         <v>128</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-    </row>
-    <row r="13" s="15" customFormat="1" spans="1:23">
-      <c r="A13" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="3">
-        <v>5</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -5288,12 +4786,12 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" s="15" customFormat="1" spans="1:23">
+    <row r="14" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="3" t="b">
-        <v>0</v>
+        <v>139</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -5317,12 +4815,12 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" s="15" customFormat="1" spans="1:23">
+    <row r="15" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -5346,9 +4844,9 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" s="15" customFormat="1" spans="1:23">
+    <row r="16" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3" t="b">
         <v>1</v>
@@ -5375,12 +4873,12 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" s="15" customFormat="1" spans="1:23">
+    <row r="17" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -5404,129 +4902,187 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" s="15" customFormat="1" spans="1:5">
+    <row r="18" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="19" s="15" customFormat="1" spans="1:5">
-      <c r="A19" s="3" t="s">
+    <row r="21" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" s="15" customFormat="1" spans="1:23">
-      <c r="A20" s="3" t="s">
+      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B22" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B9 G9 N9:W9 A8:A9 I1:I7 I10:I17 I20:I1048576 J1:J7 J10:J17 J20:J1048576 O1:O7 O10:O17 O20:O1048576 K1:M7 V1:AE7 P1:U7 K10:M17 V10:AE17 P10:U17 K20:M1048576 V20:AE1048576 P20:U1048576 X8:AE9 C8:E9 H8:M9 A18:E19">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10 G10 N10:W10 A9:A10 O1:AE8 A20:E21 I11:M19 O11:AE19 I22:M1048576 O22:AE1048576 X9:AE10 C9:E10 H9:M10 I1:M8">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 E10:F10 B17 G1:G7 G10:G17 G20:G1048576 A4:B6 E1:F7 A14:B16 D11:F17 D20:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:F11 B18:B19 E1:G8 G11:G19 A4:B6 D22:G1048576 A15:B17 D12:F19 B7:B8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B8 G8 N8:W8 F8:F9 N1:N7 N10:N17 N20:N1048576"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B1048576 C11:C17 C20:C1048576 A12:B13 A2:B3">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B9 G9 N9:W9 F9:F10 N22:N1048576 N11:N19 N1:N8"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:AC10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.3666666666667" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="7.18333333333333" customWidth="1"/>
-    <col min="4" max="4" width="10.45" customWidth="1"/>
-    <col min="5" max="5" width="11.6333333333333" customWidth="1"/>
-    <col min="8" max="9" width="9.18333333333333" customWidth="1"/>
-    <col min="10" max="12" width="12.6333333333333" customWidth="1"/>
-    <col min="13" max="13" width="11.6333333333333" customWidth="1"/>
-    <col min="14" max="14" width="10.3666666666667" customWidth="1"/>
-    <col min="15" max="15" width="11.6333333333333" customWidth="1"/>
-    <col min="16" max="16" width="10.3666666666667" customWidth="1"/>
-    <col min="17" max="17" width="9.18333333333333" customWidth="1"/>
-    <col min="18" max="18" width="12.8166666666667" customWidth="1"/>
-    <col min="19" max="19" width="10.3666666666667" customWidth="1"/>
-    <col min="20" max="20" width="15.1833333333333" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="8" max="9" width="9.1796875" customWidth="1"/>
+    <col min="10" max="12" width="12.6328125" customWidth="1"/>
+    <col min="13" max="13" width="11.6328125" customWidth="1"/>
+    <col min="14" max="14" width="10.36328125" customWidth="1"/>
+    <col min="15" max="15" width="11.6328125" customWidth="1"/>
+    <col min="16" max="16" width="10.36328125" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" customWidth="1"/>
+    <col min="18" max="18" width="12.81640625" customWidth="1"/>
+    <col min="19" max="19" width="10.36328125" customWidth="1"/>
+    <col min="20" max="20" width="15.1796875" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="22" max="22" width="12.6333333333333" customWidth="1"/>
+    <col min="22" max="22" width="12.6328125" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="25" width="11.6333333333333" customWidth="1"/>
-    <col min="26" max="26" width="15.1833333333333" customWidth="1"/>
-    <col min="27" max="27" width="12.6333333333333" customWidth="1"/>
+    <col min="24" max="25" width="11.6328125" customWidth="1"/>
+    <col min="26" max="26" width="15.1796875" customWidth="1"/>
+    <col min="27" max="27" width="12.6328125" customWidth="1"/>
     <col min="28" max="29" width="14" customWidth="1"/>
-    <col min="30" max="30" width="11.6333333333333" customWidth="1"/>
-    <col min="31" max="32" width="15.1833333333333" customWidth="1"/>
+    <col min="30" max="30" width="11.6328125" customWidth="1"/>
+    <col min="31" max="32" width="15.1796875" customWidth="1"/>
     <col min="33" max="33" width="14" customWidth="1"/>
-    <col min="34" max="34" width="15.1833333333333" customWidth="1"/>
+    <col min="34" max="34" width="15.1796875" customWidth="1"/>
     <col min="35" max="35" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:2">
+    <row r="1" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5534,7 +5090,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:2">
+    <row r="2" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>138</v>
       </c>
@@ -5542,7 +5098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
+    <row r="3" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>139</v>
       </c>
@@ -5550,7 +5106,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:2">
+    <row r="4" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -5558,7 +5114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:2">
+    <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -5566,7 +5122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:2">
+    <row r="6" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -5574,7 +5130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:2">
+    <row r="7" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -5582,234 +5138,242 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:29">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="Z9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AA9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AB9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AC9" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:29">
-      <c r="A9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:2">
+    <row r="10" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B11" s="12" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:C9 U9 AC1:AC7 AC10:AC1048576 AD$1:AK$1048576 I1:K7 I10:K1048576 L1:AB7 L10:AB1048576 D8:T9 V8:AC9">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:C10 U10 AC1:AC8 AC11:AC1048576 AD1:AK1048576 I1:K8 I11:K1048576 L1:AB8 L11:AB1048576 D9:T10 V9:AC10">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 G1:G7 G10:G1048576 A4:B6 D1:F7 D10:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8 G1:G8 G11:G1048576 A4:B6 D1:F8 D11:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C1:C7 A2:B3 B11:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C1:C8 A2:B3 B12:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1833333333333" customWidth="1"/>
-    <col min="2" max="2" width="17.1833333333333" customWidth="1"/>
-    <col min="3" max="3" width="20.3666666666667" customWidth="1"/>
-    <col min="4" max="4" width="10.45" customWidth="1"/>
-    <col min="5" max="5" width="11.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="12.6333333333333" customWidth="1"/>
-    <col min="10" max="11" width="22.6333333333333" customWidth="1"/>
-    <col min="12" max="12" width="10.45" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" customWidth="1"/>
+    <col min="10" max="11" width="22.6328125" customWidth="1"/>
+    <col min="12" max="12" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:2">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5817,7 +5381,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:2">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>138</v>
       </c>
@@ -5825,7 +5389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" spans="1:2">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>139</v>
       </c>
@@ -5833,7 +5397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" spans="1:2">
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>41</v>
       </c>
@@ -5841,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" spans="1:2">
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>42</v>
       </c>
@@ -5849,7 +5413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" spans="1:2">
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>43</v>
       </c>
@@ -5857,7 +5421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" spans="1:2">
+    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>44</v>
       </c>
@@ -5865,175 +5429,191 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" spans="1:4">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" spans="1:4">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" spans="1:2">
-      <c r="A10" s="9" t="s">
+    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="11" s="5" customFormat="1" spans="1:2">
-      <c r="A11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="8" t="s">
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" spans="1:2">
-      <c r="A12" s="9" t="s">
+    <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B13" s="9">
         <v>512</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="1" spans="1:2">
-      <c r="A13" s="9" t="s">
+    <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B14" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="14" s="6" customFormat="1" spans="1:2">
-      <c r="A14" s="9" t="s">
+    <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" s="6" customFormat="1" spans="1:2">
-      <c r="A15" s="9" t="s">
+      <c r="B15" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" s="6" customFormat="1" spans="1:2">
-      <c r="A16" s="9" t="s">
+      <c r="B16" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" s="6" customFormat="1" spans="1:2">
-      <c r="A17" s="9" t="s">
+      <c r="B17" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" s="6" customFormat="1" spans="1:3">
-      <c r="A18" s="6" t="s">
+      <c r="B18" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="19" s="6" customFormat="1" spans="1:3">
-      <c r="A19" s="6" t="s">
+    <row r="21" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" s="6" customFormat="1" spans="1:2">
-      <c r="A20" s="9" t="s">
+      <c r="B21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B22" s="10" t="s">
         <v>201</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 E10:F10 D18:F18 G18 D19:F19 G19 G1:G7 G8:G9 G10:G17 G20:G1048576 A4:B6 E1:F7 A14:B16 E8:F9 D11:F17 D20:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8 G1:G21 A4:B6 A15:B17 E1:F11 D12:F21 D22:G1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B1048576 C11:C17 C20:C1048576 A12:B13 A2:B3">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I18:L18 I19:L19 I1:L7 A8:D9 I8:L9 I10:L17 I20:L1048576 A18:B19">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:D10 I1:L1048576 A20:B21">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1833333333333" style="4" customWidth="1"/>
-    <col min="2" max="3" width="7.18333333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.45" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6333333333333" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" style="4" customWidth="1"/>
+    <col min="2" max="3" width="7.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" style="4" customWidth="1"/>
     <col min="6" max="10" width="9" style="4"/>
-    <col min="11" max="11" width="12.6333333333333" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.8166666666667" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.81640625" style="4" customWidth="1"/>
     <col min="13" max="13" width="9" style="4"/>
-    <col min="14" max="14" width="11.6333333333333" style="4" customWidth="1"/>
-    <col min="15" max="15" width="13.8166666666667" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" style="4" customWidth="1"/>
     <col min="16" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:2">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6041,7 +5621,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:2">
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>138</v>
       </c>
@@ -6049,7 +5629,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>139</v>
       </c>
@@ -6057,7 +5637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:2">
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -6065,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:2">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -6073,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:2">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -6081,7 +5661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:2">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -6089,216 +5669,231 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:8">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:1">
-      <c r="A10" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:2">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B13" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:2">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B14" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" spans="1:2">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="1:2">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:8">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" spans="1:8">
-      <c r="A19" s="3" t="s">
+    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="1:1">
-      <c r="A20" s="3" t="s">
+      <c r="C21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 E10:F10 B17 G1:G7 G10:G17 G20:G1048576 H1:H7 H10:H17 H20:H1048576 I$1:I$1048576 A4:B6 A14:B16 E1:F7 D11:F17 D20:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:F11 B7:B8 G11:H19 D22:H1048576 I1:I1048576 A4:B6 A15:B17 E1:H8 D12:F19 B18:B19">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A17"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A8:B8 D8:F8 A18:B18 D18:F18 K38:K1048576"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B1048576 C11:C17 C20:C1048576 A2:B3 A12:B13">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8 A18:A19"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A9:B9 D9:F9 A20:B20 D20:F20 K40:K1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A2:B3 A13:B14">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9 B9 D9:F9 A19 B19 D19:F19 K1:K37">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:B10 D10:F10 A21:B21 D21:F21 K1:K39">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C21">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.18333333333333" customWidth="1"/>
-    <col min="2" max="2" width="12.6333333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.45" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6312,7 +5907,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>214</v>
       </c>
@@ -6327,6 +5922,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"lua,python,C#,js"</formula1>
@@ -6335,7 +5931,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
